--- a/Small Scale Instances/MSV-Results.xlsx
+++ b/Small Scale Instances/MSV-Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sujan\Transportation-Problem\New problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sujan\MSVM-Transportation-Problem\Small Scale Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Instance number</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Optimal Solution</t>
+  </si>
+  <si>
+    <t>WPCM2-GM</t>
+  </si>
+  <si>
+    <t>WPCM2-SD</t>
+  </si>
+  <si>
+    <t>WUPCM2-GM</t>
+  </si>
+  <si>
+    <t>WUPCM2-SD</t>
+  </si>
+  <si>
+    <t>WPCM-2</t>
+  </si>
+  <si>
+    <t>WUPCM2-TCM</t>
   </si>
 </sst>
 </file>
@@ -117,10 +135,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -137,15 +165,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:T147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+      <selection activeCell="N1" sqref="N1:O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,31 +459,56 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="8" max="19" width="14.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,9 +527,45 @@
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -505,11 +587,47 @@
       <c r="G3">
         <v>118</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="2">
+        <v>117</v>
+      </c>
+      <c r="I3" s="2">
+        <v>125</v>
+      </c>
+      <c r="J3" s="2">
+        <v>117</v>
+      </c>
+      <c r="K3" s="2">
+        <v>117</v>
+      </c>
+      <c r="L3" s="2">
+        <v>120</v>
+      </c>
+      <c r="M3" s="2">
+        <v>120</v>
+      </c>
+      <c r="N3" s="2">
+        <v>130</v>
+      </c>
+      <c r="O3" s="2">
+        <v>118</v>
+      </c>
+      <c r="P3" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>117</v>
+      </c>
+      <c r="R3" s="2">
+        <v>134</v>
+      </c>
+      <c r="S3" s="2">
+        <v>120</v>
+      </c>
+      <c r="T3" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -531,11 +649,47 @@
       <c r="G4">
         <v>1425</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="2">
+        <v>1146</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1104</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1242</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1232</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1610</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1471</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1284</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1154</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1242</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1471</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1610</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="T4" s="3">
         <v>1102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -557,11 +711,47 @@
       <c r="G5">
         <v>970</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="2">
+        <v>955</v>
+      </c>
+      <c r="I5" s="2">
+        <v>955</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1120</v>
+      </c>
+      <c r="K5" s="2">
+        <v>985</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1120</v>
+      </c>
+      <c r="M5" s="2">
+        <v>985</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1120</v>
+      </c>
+      <c r="O5" s="2">
+        <v>910</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1120</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>985</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1120</v>
+      </c>
+      <c r="S5" s="2">
+        <v>985</v>
+      </c>
+      <c r="T5" s="3">
         <v>880</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -583,11 +773,47 @@
       <c r="G6">
         <v>1729</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="2">
+        <v>1839</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1839</v>
+      </c>
+      <c r="J6" s="2">
         <v>1729</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2059</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2070</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1931</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1931</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -609,11 +835,47 @@
       <c r="G7">
         <v>1705</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="2">
+        <v>1745</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1745</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1695</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1695</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1705</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1705</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1770</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1695</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1695</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1695</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1695</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1695</v>
+      </c>
+      <c r="T7" s="3">
         <v>1650</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -635,11 +897,47 @@
       <c r="G8">
         <v>137</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="2">
+        <v>127</v>
+      </c>
+      <c r="I8" s="2">
+        <v>128</v>
+      </c>
+      <c r="J8" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L8" s="2">
+        <v>137</v>
+      </c>
+      <c r="M8" s="2">
+        <v>145</v>
+      </c>
+      <c r="N8" s="2">
+        <v>116</v>
+      </c>
+      <c r="O8" s="2">
+        <v>116</v>
+      </c>
+      <c r="P8" s="2">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>111</v>
+      </c>
+      <c r="R8" s="2">
+        <v>137</v>
+      </c>
+      <c r="S8" s="2">
+        <v>115</v>
+      </c>
+      <c r="T8" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -661,11 +959,47 @@
       <c r="G9">
         <v>1640</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="2">
         <v>1480</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="2">
+        <v>1480</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1480</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1640</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1640</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1640</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1480</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1480</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1480</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1640</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1640</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1640</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -687,11 +1021,47 @@
       <c r="G10">
         <v>1640</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="2">
+        <v>1575</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1575</v>
+      </c>
+      <c r="J10" s="2">
         <v>1565</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>1565</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1685</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1685</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1575</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1575</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1565</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1565</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1640</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1640</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -713,11 +1083,47 @@
       <c r="G11">
         <v>207</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="2">
+        <v>199</v>
+      </c>
+      <c r="J11" s="2">
+        <v>183</v>
+      </c>
+      <c r="K11" s="2">
+        <v>183</v>
+      </c>
+      <c r="L11" s="2">
+        <v>183</v>
+      </c>
+      <c r="M11" s="2">
+        <v>183</v>
+      </c>
+      <c r="N11" s="2">
+        <v>199</v>
+      </c>
+      <c r="O11" s="2">
+        <v>183</v>
+      </c>
+      <c r="P11" s="2">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>183</v>
+      </c>
+      <c r="R11" s="2">
+        <v>199</v>
+      </c>
+      <c r="S11" s="2">
+        <v>183</v>
+      </c>
+      <c r="T11" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -739,11 +1145,47 @@
       <c r="G12">
         <v>390</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="2">
         <v>390</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="2">
+        <v>390</v>
+      </c>
+      <c r="J12" s="2">
+        <v>390</v>
+      </c>
+      <c r="K12" s="2">
+        <v>390</v>
+      </c>
+      <c r="L12" s="2">
+        <v>390</v>
+      </c>
+      <c r="M12" s="2">
+        <v>390</v>
+      </c>
+      <c r="N12" s="2">
+        <v>410</v>
+      </c>
+      <c r="O12" s="2">
+        <v>420</v>
+      </c>
+      <c r="P12" s="2">
+        <v>390</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>390</v>
+      </c>
+      <c r="R12" s="2">
+        <v>390</v>
+      </c>
+      <c r="S12" s="2">
+        <v>390</v>
+      </c>
+      <c r="T12" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -765,11 +1207,47 @@
       <c r="G13">
         <v>460</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="2">
+        <v>475</v>
+      </c>
+      <c r="I13" s="2">
+        <v>475</v>
+      </c>
+      <c r="J13" s="2">
+        <v>460</v>
+      </c>
+      <c r="K13" s="2">
+        <v>460</v>
+      </c>
+      <c r="L13" s="2">
+        <v>460</v>
+      </c>
+      <c r="M13" s="2">
+        <v>460</v>
+      </c>
+      <c r="N13" s="2">
+        <v>460</v>
+      </c>
+      <c r="O13" s="2">
+        <v>460</v>
+      </c>
+      <c r="P13" s="2">
+        <v>460</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>460</v>
+      </c>
+      <c r="R13" s="2">
+        <v>460</v>
+      </c>
+      <c r="S13" s="2">
+        <v>460</v>
+      </c>
+      <c r="T13" s="3">
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -791,11 +1269,47 @@
       <c r="G14">
         <v>840</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="2">
         <v>840</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="2">
+        <v>840</v>
+      </c>
+      <c r="J14" s="2">
+        <v>840</v>
+      </c>
+      <c r="K14" s="2">
+        <v>840</v>
+      </c>
+      <c r="L14" s="2">
+        <v>840</v>
+      </c>
+      <c r="M14" s="2">
+        <v>840</v>
+      </c>
+      <c r="N14" s="2">
+        <v>860</v>
+      </c>
+      <c r="O14" s="2">
+        <v>840</v>
+      </c>
+      <c r="P14" s="2">
+        <v>840</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>840</v>
+      </c>
+      <c r="R14" s="2">
+        <v>840</v>
+      </c>
+      <c r="S14" s="2">
+        <v>840</v>
+      </c>
+      <c r="T14" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -817,11 +1331,47 @@
       <c r="G15">
         <v>2159500</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="2">
+        <v>2164000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2164000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2159500</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2159500</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2159500</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2159500</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2164000</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2164000</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2159500</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2159500</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2175100</v>
+      </c>
+      <c r="S15" s="2">
+        <v>2175100</v>
+      </c>
+      <c r="T15" s="3">
         <v>2146750</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -843,11 +1393,47 @@
       <c r="G16">
         <v>69</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2">
+        <v>59</v>
+      </c>
+      <c r="J16" s="2">
+        <v>60</v>
+      </c>
+      <c r="K16" s="2">
+        <v>65</v>
+      </c>
+      <c r="L16" s="2">
+        <v>62</v>
+      </c>
+      <c r="M16" s="2">
+        <v>69</v>
+      </c>
+      <c r="N16" s="2">
+        <v>65</v>
+      </c>
+      <c r="O16" s="2">
+        <v>65</v>
+      </c>
+      <c r="P16" s="2">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>65</v>
+      </c>
+      <c r="R16" s="2">
+        <v>69</v>
+      </c>
+      <c r="S16" s="2">
+        <v>69</v>
+      </c>
+      <c r="T16" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -869,11 +1455,47 @@
       <c r="G17">
         <v>68224</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="2">
+        <v>60748</v>
+      </c>
+      <c r="I17" s="2">
+        <v>64095</v>
+      </c>
+      <c r="J17" s="2">
+        <v>61676</v>
+      </c>
+      <c r="K17" s="2">
+        <v>67101</v>
+      </c>
+      <c r="L17" s="2">
+        <v>63412</v>
+      </c>
+      <c r="M17" s="2">
+        <v>67101</v>
+      </c>
+      <c r="N17" s="2">
         <v>59356</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O17" s="2">
+        <v>59356</v>
+      </c>
+      <c r="P17" s="2">
+        <v>67681</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>67681</v>
+      </c>
+      <c r="R17" s="2">
+        <v>67681</v>
+      </c>
+      <c r="S17" s="2">
+        <v>67101</v>
+      </c>
+      <c r="T17" s="3">
+        <v>59356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -895,11 +1517,47 @@
       <c r="G18">
         <v>743</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="2">
         <v>743</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2">
+        <v>779</v>
+      </c>
+      <c r="J18" s="2">
+        <v>779</v>
+      </c>
+      <c r="K18" s="2">
+        <v>779</v>
+      </c>
+      <c r="L18" s="2">
+        <v>779</v>
+      </c>
+      <c r="M18" s="2">
+        <v>779</v>
+      </c>
+      <c r="N18" s="2">
+        <v>743</v>
+      </c>
+      <c r="O18" s="2">
+        <v>743</v>
+      </c>
+      <c r="P18" s="2">
+        <v>779</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>779</v>
+      </c>
+      <c r="R18" s="2">
+        <v>779</v>
+      </c>
+      <c r="S18" s="2">
+        <v>779</v>
+      </c>
+      <c r="T18" s="3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -921,11 +1579,47 @@
       <c r="G19">
         <v>853</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="2">
+        <v>883</v>
+      </c>
+      <c r="I19" s="2">
+        <v>883</v>
+      </c>
+      <c r="J19" s="2">
+        <v>779</v>
+      </c>
+      <c r="K19" s="2">
+        <v>779</v>
+      </c>
+      <c r="L19" s="2">
+        <v>779</v>
+      </c>
+      <c r="M19" s="2">
+        <v>779</v>
+      </c>
+      <c r="N19" s="2">
+        <v>970</v>
+      </c>
+      <c r="O19" s="2">
+        <v>970</v>
+      </c>
+      <c r="P19" s="2">
+        <v>779</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>779</v>
+      </c>
+      <c r="R19" s="2">
+        <v>779</v>
+      </c>
+      <c r="S19" s="2">
+        <v>779</v>
+      </c>
+      <c r="T19" s="3">
         <v>743</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -947,11 +1641,47 @@
       <c r="G20">
         <v>305</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2">
+        <v>273</v>
+      </c>
+      <c r="J20" s="2">
+        <v>275</v>
+      </c>
+      <c r="K20" s="2">
+        <v>295</v>
+      </c>
+      <c r="L20" s="2">
+        <v>273</v>
+      </c>
+      <c r="M20" s="2">
+        <v>295</v>
+      </c>
+      <c r="N20" s="2">
+        <v>273</v>
+      </c>
+      <c r="O20" s="2">
+        <v>273</v>
+      </c>
+      <c r="P20" s="2">
+        <v>273</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>295</v>
+      </c>
+      <c r="R20" s="2">
+        <v>273</v>
+      </c>
+      <c r="S20" s="2">
+        <v>295</v>
+      </c>
+      <c r="T20" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -973,11 +1703,47 @@
       <c r="G21">
         <v>590</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="2">
+        <v>590</v>
+      </c>
+      <c r="I21" s="2">
+        <v>590</v>
+      </c>
+      <c r="J21" s="2">
+        <v>690</v>
+      </c>
+      <c r="K21" s="2">
+        <v>595</v>
+      </c>
+      <c r="L21" s="2">
+        <v>690</v>
+      </c>
+      <c r="M21" s="2">
+        <v>595</v>
+      </c>
+      <c r="N21" s="2">
+        <v>595</v>
+      </c>
+      <c r="O21" s="2">
         <v>555</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P21" s="2">
+        <v>690</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>590</v>
+      </c>
+      <c r="R21" s="2">
+        <v>590</v>
+      </c>
+      <c r="S21" s="2">
+        <v>595</v>
+      </c>
+      <c r="T21" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -999,11 +1765,47 @@
       <c r="G22">
         <v>139</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="2">
+        <v>122</v>
+      </c>
+      <c r="I22" s="2">
+        <v>128</v>
+      </c>
+      <c r="J22" s="2">
+        <v>127</v>
+      </c>
+      <c r="K22" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L22" s="2">
+        <v>139</v>
+      </c>
+      <c r="M22" s="2">
+        <v>145</v>
+      </c>
+      <c r="N22" s="2">
+        <v>116</v>
+      </c>
+      <c r="O22" s="2">
+        <v>116</v>
+      </c>
+      <c r="P22" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>112</v>
+      </c>
+      <c r="R22" s="2">
+        <v>139</v>
+      </c>
+      <c r="S22" s="2">
+        <v>115</v>
+      </c>
+      <c r="T22" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1025,11 +1827,47 @@
       <c r="G23">
         <v>5600</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="2">
         <v>5600</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="M23" s="2">
+        <v>7520</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="R23" s="2">
+        <v>5600</v>
+      </c>
+      <c r="S23" s="2">
+        <v>7520</v>
+      </c>
+      <c r="T23" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1051,11 +1889,47 @@
       <c r="G24">
         <v>34</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="2">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2">
+        <v>34</v>
+      </c>
+      <c r="K24" s="2">
+        <v>34</v>
+      </c>
+      <c r="L24" s="2">
+        <v>34</v>
+      </c>
+      <c r="M24" s="2">
+        <v>34</v>
+      </c>
+      <c r="N24" s="2">
+        <v>28</v>
+      </c>
+      <c r="O24" s="2">
+        <v>28</v>
+      </c>
+      <c r="P24" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>34</v>
+      </c>
+      <c r="R24" s="2">
+        <v>34</v>
+      </c>
+      <c r="S24" s="2">
+        <v>34</v>
+      </c>
+      <c r="T24" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1077,11 +1951,47 @@
       <c r="G25">
         <v>260</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="2">
+        <v>200</v>
+      </c>
+      <c r="J25" s="2">
+        <v>320</v>
+      </c>
+      <c r="K25" s="2">
+        <v>320</v>
+      </c>
+      <c r="L25" s="2">
+        <v>320</v>
+      </c>
+      <c r="M25" s="2">
+        <v>320</v>
+      </c>
+      <c r="N25" s="2">
+        <v>250</v>
+      </c>
+      <c r="O25" s="2">
+        <v>200</v>
+      </c>
+      <c r="P25" s="2">
+        <v>370</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>370</v>
+      </c>
+      <c r="R25" s="2">
+        <v>370</v>
+      </c>
+      <c r="S25" s="2">
+        <v>370</v>
+      </c>
+      <c r="T25" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1103,11 +2013,47 @@
       <c r="G26">
         <v>2593</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="2">
+        <v>2266</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2224</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2432</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2422</v>
+      </c>
+      <c r="L26" s="2">
+        <v>3260</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3611</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2404</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2404</v>
+      </c>
+      <c r="P26" s="2">
+        <v>2432</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>2422</v>
+      </c>
+      <c r="R26" s="2">
+        <v>3260</v>
+      </c>
+      <c r="S26" s="2">
+        <v>3611</v>
+      </c>
+      <c r="T26" s="3">
         <v>2202</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1129,11 +2075,47 @@
       <c r="G27">
         <v>131</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="2">
+        <v>131</v>
+      </c>
+      <c r="J27" s="2">
+        <v>136</v>
+      </c>
+      <c r="K27" s="2">
+        <v>131</v>
+      </c>
+      <c r="L27" s="2">
+        <v>131</v>
+      </c>
+      <c r="M27" s="2">
+        <v>131</v>
+      </c>
+      <c r="N27" s="2">
+        <v>131</v>
+      </c>
+      <c r="O27" s="2">
+        <v>131</v>
+      </c>
+      <c r="P27" s="2">
+        <v>131</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>131</v>
+      </c>
+      <c r="R27" s="2">
+        <v>131</v>
+      </c>
+      <c r="S27" s="2">
+        <v>131</v>
+      </c>
+      <c r="T27" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1155,11 +2137,47 @@
       <c r="G28">
         <v>450</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="2">
+        <v>420</v>
+      </c>
+      <c r="J28" s="2">
+        <v>420</v>
+      </c>
+      <c r="K28" s="2">
+        <v>450</v>
+      </c>
+      <c r="L28" s="2">
+        <v>450</v>
+      </c>
+      <c r="M28" s="2">
+        <v>450</v>
+      </c>
+      <c r="N28" s="2">
+        <v>420</v>
+      </c>
+      <c r="O28" s="2">
+        <v>420</v>
+      </c>
+      <c r="P28" s="2">
+        <v>420</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>450</v>
+      </c>
+      <c r="R28" s="2">
+        <v>420</v>
+      </c>
+      <c r="S28" s="2">
+        <v>450</v>
+      </c>
+      <c r="T28" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1181,11 +2199,47 @@
       <c r="G29">
         <v>2424</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="2">
         <v>2424</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="2">
+        <v>2424</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2792</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2832</v>
+      </c>
+      <c r="P29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="R29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="S29" s="2">
+        <v>2752</v>
+      </c>
+      <c r="T29" s="3">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1207,11 +2261,47 @@
       <c r="G30">
         <v>9200</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="2">
+        <v>9700</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9700</v>
+      </c>
+      <c r="J30" s="2">
+        <v>10300</v>
+      </c>
+      <c r="K30" s="2">
+        <v>10900</v>
+      </c>
+      <c r="L30" s="2">
+        <v>10900</v>
+      </c>
+      <c r="M30" s="2">
+        <v>9800</v>
+      </c>
+      <c r="N30" s="2">
+        <v>9700</v>
+      </c>
+      <c r="O30" s="2">
+        <v>9700</v>
+      </c>
+      <c r="P30" s="2">
+        <v>10300</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>10300</v>
+      </c>
+      <c r="R30" s="2">
+        <v>10900</v>
+      </c>
+      <c r="S30" s="2">
+        <v>10300</v>
+      </c>
+      <c r="T30" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1233,11 +2323,47 @@
       <c r="G31">
         <v>175</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="2">
+        <v>155</v>
+      </c>
+      <c r="J31" s="2">
+        <v>155</v>
+      </c>
+      <c r="K31" s="2">
+        <v>175</v>
+      </c>
+      <c r="L31" s="2">
+        <v>175</v>
+      </c>
+      <c r="M31" s="2">
+        <v>175</v>
+      </c>
+      <c r="N31" s="2">
+        <v>155</v>
+      </c>
+      <c r="O31" s="2">
+        <v>155</v>
+      </c>
+      <c r="P31" s="2">
+        <v>155</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>175</v>
+      </c>
+      <c r="R31" s="2">
+        <v>175</v>
+      </c>
+      <c r="S31" s="2">
+        <v>175</v>
+      </c>
+      <c r="T31" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1259,11 +2385,47 @@
       <c r="G32">
         <v>137</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="2">
+        <v>137</v>
+      </c>
+      <c r="I32" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <v>131</v>
+      </c>
+      <c r="K32" s="2">
+        <v>131</v>
+      </c>
+      <c r="L32" s="2">
+        <v>146</v>
+      </c>
+      <c r="M32" s="2">
+        <v>146</v>
+      </c>
+      <c r="N32" s="2">
+        <v>137</v>
+      </c>
+      <c r="O32" s="2">
+        <v>137</v>
+      </c>
+      <c r="P32" s="2">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>137</v>
+      </c>
+      <c r="R32" s="2">
+        <v>146</v>
+      </c>
+      <c r="S32" s="2">
+        <v>146</v>
+      </c>
+      <c r="T32" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1285,11 +2447,47 @@
       <c r="G33">
         <v>799</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="2">
         <v>799</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="2">
+        <v>859</v>
+      </c>
+      <c r="J33" s="2">
+        <v>859</v>
+      </c>
+      <c r="K33" s="2">
+        <v>859</v>
+      </c>
+      <c r="L33" s="2">
+        <v>859</v>
+      </c>
+      <c r="M33" s="2">
+        <v>859</v>
+      </c>
+      <c r="N33" s="2">
+        <v>799</v>
+      </c>
+      <c r="O33" s="2">
+        <v>799</v>
+      </c>
+      <c r="P33" s="2">
+        <v>859</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>859</v>
+      </c>
+      <c r="R33" s="2">
+        <v>859</v>
+      </c>
+      <c r="S33" s="2">
+        <v>859</v>
+      </c>
+      <c r="T33" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1311,11 +2509,47 @@
       <c r="G34">
         <v>470</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="2">
+        <v>470</v>
+      </c>
+      <c r="I34" s="2">
+        <v>470</v>
+      </c>
+      <c r="J34" s="2">
+        <v>420</v>
+      </c>
+      <c r="K34" s="2">
+        <v>420</v>
+      </c>
+      <c r="L34" s="2">
+        <v>465</v>
+      </c>
+      <c r="M34" s="2">
+        <v>450</v>
+      </c>
+      <c r="N34" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O34" s="2">
+        <v>430</v>
+      </c>
+      <c r="P34" s="2">
+        <v>410</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>410</v>
+      </c>
+      <c r="R34" s="2">
+        <v>455</v>
+      </c>
+      <c r="S34" s="2">
+        <v>450</v>
+      </c>
+      <c r="T34" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1337,11 +2571,47 @@
       <c r="G35">
         <v>1074300</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="2">
         <v>1074300</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="2">
+        <v>1074300</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1087800</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1087800</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1087800</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1087800</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1096200</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1094900</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1096200</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1096200</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1096200</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1087800</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1074300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1363,11 +2633,47 @@
       <c r="G36">
         <v>285</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="2">
         <v>285</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="2">
+        <v>285</v>
+      </c>
+      <c r="J36" s="2">
+        <v>285</v>
+      </c>
+      <c r="K36" s="2">
+        <v>285</v>
+      </c>
+      <c r="L36" s="2">
+        <v>285</v>
+      </c>
+      <c r="M36" s="2">
+        <v>285</v>
+      </c>
+      <c r="N36" s="2">
+        <v>315</v>
+      </c>
+      <c r="O36" s="2">
+        <v>285</v>
+      </c>
+      <c r="P36" s="2">
+        <v>285</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>285</v>
+      </c>
+      <c r="R36" s="2">
+        <v>285</v>
+      </c>
+      <c r="S36" s="2">
+        <v>285</v>
+      </c>
+      <c r="T36" s="3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1389,11 +2695,47 @@
       <c r="G37">
         <v>525</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="2">
         <v>510</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="2">
+        <v>510</v>
+      </c>
+      <c r="J37" s="2">
+        <v>510</v>
+      </c>
+      <c r="K37" s="2">
+        <v>525</v>
+      </c>
+      <c r="L37" s="2">
+        <v>510</v>
+      </c>
+      <c r="M37" s="2">
+        <v>525</v>
+      </c>
+      <c r="N37" s="2">
+        <v>510</v>
+      </c>
+      <c r="O37" s="2">
+        <v>510</v>
+      </c>
+      <c r="P37" s="2">
+        <v>510</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>525</v>
+      </c>
+      <c r="R37" s="2">
+        <v>510</v>
+      </c>
+      <c r="S37" s="2">
+        <v>525</v>
+      </c>
+      <c r="T37" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1415,11 +2757,47 @@
       <c r="G38">
         <v>1220</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="2">
+        <v>1220</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1220</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1280</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1220</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1280</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1170</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1315</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1280</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1280</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1280</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1220</v>
+      </c>
+      <c r="T38" s="3">
         <v>1160</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1441,11 +2819,47 @@
       <c r="G39">
         <v>2560</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="2">
+        <v>2130</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2130</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2130</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2480</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2380</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2560</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2210</v>
+      </c>
+      <c r="O39" s="2">
+        <v>2130</v>
+      </c>
+      <c r="P39" s="2">
+        <v>2130</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>2480</v>
+      </c>
+      <c r="R39" s="2">
+        <v>2130</v>
+      </c>
+      <c r="S39" s="2">
+        <v>2540</v>
+      </c>
+      <c r="T39" s="3">
         <v>2070</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1467,11 +2881,47 @@
       <c r="G40">
         <v>2650</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="2">
+        <v>2310</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2400</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2415</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2495</v>
+      </c>
+      <c r="L40" s="2">
+        <v>2495</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2495</v>
+      </c>
+      <c r="N40" s="2">
+        <v>2425</v>
+      </c>
+      <c r="O40" s="2">
         <v>2170</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P40" s="2">
+        <v>2490</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>2695</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2810</v>
+      </c>
+      <c r="S40" s="2">
+        <v>2735</v>
+      </c>
+      <c r="T40" s="3">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1493,11 +2943,47 @@
       <c r="G41">
         <v>1940</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="2">
+        <v>1930</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1930</v>
+      </c>
+      <c r="J41" s="2">
         <v>1900</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K41" s="2">
+        <v>1920</v>
+      </c>
+      <c r="L41" s="2">
+        <v>2320</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1920</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1900</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1900</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1900</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1920</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1940</v>
+      </c>
+      <c r="S41" s="2">
+        <v>2290</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1519,11 +3005,47 @@
       <c r="G42">
         <v>1060</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J42" s="2">
         <v>1060</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1060</v>
+      </c>
+      <c r="T42" s="3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1545,11 +3067,47 @@
       <c r="G43">
         <v>1840</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="2">
+        <v>1710</v>
+      </c>
+      <c r="I43" s="2">
         <v>1670</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J43" s="2">
+        <v>2130</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1840</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1690</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1840</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1710</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1890</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1840</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1890</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1840</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1571,11 +3129,47 @@
       <c r="G44">
         <v>1555</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="2">
+        <v>1515</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1515</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1900</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1790</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1805</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1585</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1545</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1515</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2090</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1585</v>
+      </c>
+      <c r="R44" s="2">
+        <v>1805</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1585</v>
+      </c>
+      <c r="T44" s="3">
         <v>1505</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1597,11 +3191,47 @@
       <c r="G45">
         <v>76</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" s="2">
+        <v>83</v>
+      </c>
+      <c r="K45" s="2">
+        <v>83</v>
+      </c>
+      <c r="L45" s="2">
+        <v>111</v>
+      </c>
+      <c r="M45" s="2">
+        <v>83</v>
+      </c>
+      <c r="N45" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O45" s="2">
+        <v>76</v>
+      </c>
+      <c r="P45" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>83</v>
+      </c>
+      <c r="R45" s="2">
+        <v>81</v>
+      </c>
+      <c r="S45" s="2">
+        <v>81</v>
+      </c>
+      <c r="T45" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1623,11 +3253,47 @@
       <c r="G46">
         <v>11500</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="2">
+        <v>12850</v>
+      </c>
+      <c r="I46" s="2">
+        <v>12850</v>
+      </c>
+      <c r="J46" s="2">
         <v>11500</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="L46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="M46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="N46" s="2">
+        <v>11950</v>
+      </c>
+      <c r="O46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="P46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="R46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="S46" s="2">
+        <v>11500</v>
+      </c>
+      <c r="T46" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1649,11 +3315,47 @@
       <c r="G47">
         <v>520</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="2">
+        <v>470</v>
+      </c>
+      <c r="I47" s="2">
+        <v>470</v>
+      </c>
+      <c r="J47" s="2">
+        <v>520</v>
+      </c>
+      <c r="K47" s="2">
+        <v>520</v>
+      </c>
+      <c r="L47" s="2">
+        <v>520</v>
+      </c>
+      <c r="M47" s="2">
+        <v>520</v>
+      </c>
+      <c r="N47" s="2">
+        <v>450</v>
+      </c>
+      <c r="O47" s="2">
+        <v>450</v>
+      </c>
+      <c r="P47" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>520</v>
+      </c>
+      <c r="R47" s="2">
+        <v>500</v>
+      </c>
+      <c r="S47" s="2">
+        <v>520</v>
+      </c>
+      <c r="T47" s="3">
         <v>430</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1675,11 +3377,47 @@
       <c r="G48">
         <v>3460</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="2">
+        <v>3580</v>
+      </c>
+      <c r="I48" s="2">
+        <v>3580</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3680</v>
+      </c>
+      <c r="K48" s="2">
         <v>3460</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L48" s="2">
+        <v>3680</v>
+      </c>
+      <c r="M48" s="2">
+        <v>3460</v>
+      </c>
+      <c r="N48" s="2">
+        <v>3460</v>
+      </c>
+      <c r="O48" s="2">
+        <v>3460</v>
+      </c>
+      <c r="P48" s="2">
+        <v>3460</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>3460</v>
+      </c>
+      <c r="R48" s="2">
+        <v>3460</v>
+      </c>
+      <c r="S48" s="2">
+        <v>3460</v>
+      </c>
+      <c r="T48" s="3">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1701,11 +3439,47 @@
       <c r="G49">
         <v>316</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="2">
+        <v>322</v>
+      </c>
+      <c r="I49" s="2">
+        <v>322</v>
+      </c>
+      <c r="J49" s="2">
+        <v>408</v>
+      </c>
+      <c r="K49" s="2">
+        <v>408</v>
+      </c>
+      <c r="L49" s="2">
+        <v>380</v>
+      </c>
+      <c r="M49" s="2">
+        <v>408</v>
+      </c>
+      <c r="N49" s="2">
+        <v>364</v>
+      </c>
+      <c r="O49" s="2">
+        <v>362</v>
+      </c>
+      <c r="P49" s="2">
+        <v>380</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>420</v>
+      </c>
+      <c r="R49" s="2">
+        <v>380</v>
+      </c>
+      <c r="S49" s="2">
+        <v>420</v>
+      </c>
+      <c r="T49" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1727,11 +3501,47 @@
       <c r="G50">
         <v>5025</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="2">
+        <v>5125</v>
+      </c>
+      <c r="I50" s="2">
+        <v>5225</v>
+      </c>
+      <c r="J50" s="2">
+        <v>4550</v>
+      </c>
+      <c r="K50" s="2">
+        <v>4550</v>
+      </c>
+      <c r="L50" s="2">
+        <v>4600</v>
+      </c>
+      <c r="M50" s="2">
+        <v>4550</v>
+      </c>
+      <c r="N50" s="2">
+        <v>5125</v>
+      </c>
+      <c r="O50" s="2">
+        <v>5025</v>
+      </c>
+      <c r="P50" s="2">
         <v>4525</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="Q50" s="2">
+        <v>4525</v>
+      </c>
+      <c r="R50" s="2">
+        <v>4550</v>
+      </c>
+      <c r="S50" s="2">
+        <v>4550</v>
+      </c>
+      <c r="T50" s="3">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1753,11 +3563,47 @@
       <c r="G51">
         <v>920</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="2">
         <v>920</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="2">
+        <v>920</v>
+      </c>
+      <c r="J51" s="2">
+        <v>940</v>
+      </c>
+      <c r="K51" s="2">
+        <v>920</v>
+      </c>
+      <c r="L51" s="2">
+        <v>940</v>
+      </c>
+      <c r="M51" s="2">
+        <v>920</v>
+      </c>
+      <c r="N51" s="2">
+        <v>920</v>
+      </c>
+      <c r="O51" s="2">
+        <v>920</v>
+      </c>
+      <c r="P51" s="2">
+        <v>930</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>920</v>
+      </c>
+      <c r="R51" s="2">
+        <v>940</v>
+      </c>
+      <c r="S51" s="2">
+        <v>920</v>
+      </c>
+      <c r="T51" s="3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1779,11 +3625,47 @@
       <c r="G52">
         <v>809</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="2">
         <v>809</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="2">
+        <v>849</v>
+      </c>
+      <c r="J52" s="2">
+        <v>849</v>
+      </c>
+      <c r="K52" s="2">
+        <v>849</v>
+      </c>
+      <c r="L52" s="2">
+        <v>849</v>
+      </c>
+      <c r="M52" s="2">
+        <v>849</v>
+      </c>
+      <c r="N52" s="2">
+        <v>809</v>
+      </c>
+      <c r="O52" s="2">
+        <v>809</v>
+      </c>
+      <c r="P52" s="2">
+        <v>849</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>849</v>
+      </c>
+      <c r="R52" s="2">
+        <v>849</v>
+      </c>
+      <c r="S52" s="2">
+        <v>849</v>
+      </c>
+      <c r="T52" s="3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1805,11 +3687,47 @@
       <c r="G53">
         <v>417</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="2">
+        <v>417</v>
+      </c>
+      <c r="I53" s="2">
+        <v>465</v>
+      </c>
+      <c r="J53" s="2">
+        <v>465</v>
+      </c>
+      <c r="K53" s="2">
+        <v>465</v>
+      </c>
+      <c r="L53" s="2">
+        <v>465</v>
+      </c>
+      <c r="M53" s="2">
+        <v>465</v>
+      </c>
+      <c r="N53" s="2">
+        <v>417</v>
+      </c>
+      <c r="O53" s="2">
+        <v>417</v>
+      </c>
+      <c r="P53" s="2">
+        <v>465</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>465</v>
+      </c>
+      <c r="R53" s="2">
+        <v>465</v>
+      </c>
+      <c r="S53" s="2">
+        <v>465</v>
+      </c>
+      <c r="T53" s="3">
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1831,11 +3749,47 @@
       <c r="G54">
         <v>3458</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="2">
+        <v>3663</v>
+      </c>
+      <c r="I54" s="2">
+        <v>3663</v>
+      </c>
+      <c r="J54" s="2">
+        <v>3863</v>
+      </c>
+      <c r="K54" s="2">
+        <v>3570</v>
+      </c>
+      <c r="L54" s="2">
+        <v>3863</v>
+      </c>
+      <c r="M54" s="2">
+        <v>3625</v>
+      </c>
+      <c r="N54" s="2">
         <v>3458</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O54" s="2">
+        <v>3570</v>
+      </c>
+      <c r="P54" s="2">
+        <v>3835</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3570</v>
+      </c>
+      <c r="R54" s="2">
+        <v>3911</v>
+      </c>
+      <c r="S54" s="2">
+        <v>3881</v>
+      </c>
+      <c r="T54" s="3">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1857,11 +3811,47 @@
       <c r="G55">
         <v>111</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="2">
+        <v>129</v>
+      </c>
+      <c r="I55" s="2">
+        <v>129</v>
+      </c>
+      <c r="J55" s="2">
+        <v>109</v>
+      </c>
+      <c r="K55" s="2">
+        <v>109</v>
+      </c>
+      <c r="L55" s="2">
+        <v>109</v>
+      </c>
+      <c r="M55" s="2">
+        <v>109</v>
+      </c>
+      <c r="N55" s="2">
+        <v>129</v>
+      </c>
+      <c r="O55" s="2">
+        <v>113</v>
+      </c>
+      <c r="P55" s="2">
+        <v>109</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>111</v>
+      </c>
+      <c r="R55" s="2">
+        <v>124</v>
+      </c>
+      <c r="S55" s="2">
+        <v>111</v>
+      </c>
+      <c r="T55" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1883,11 +3873,47 @@
       <c r="G56">
         <v>1200</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1204</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="S56" s="2">
+        <v>1200</v>
+      </c>
+      <c r="T56" s="3">
         <v>1140</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1909,11 +3935,47 @@
       <c r="G57">
         <v>218</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="2">
+        <v>200</v>
+      </c>
+      <c r="J57" s="2">
+        <v>216</v>
+      </c>
+      <c r="K57" s="2">
+        <v>218</v>
+      </c>
+      <c r="L57" s="2">
+        <v>216</v>
+      </c>
+      <c r="M57" s="2">
+        <v>218</v>
+      </c>
+      <c r="N57" s="2">
+        <v>200</v>
+      </c>
+      <c r="O57" s="2">
+        <v>216</v>
+      </c>
+      <c r="P57" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>218</v>
+      </c>
+      <c r="R57" s="2">
+        <v>216</v>
+      </c>
+      <c r="S57" s="2">
+        <v>218</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1935,11 +3997,47 @@
       <c r="G58">
         <v>2650</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="2">
+        <v>2740</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2740</v>
+      </c>
+      <c r="J58" s="2">
+        <v>2775</v>
+      </c>
+      <c r="K58" s="2">
+        <v>2815</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2860</v>
+      </c>
+      <c r="M58" s="2">
+        <v>2815</v>
+      </c>
+      <c r="N58" s="2">
+        <v>2950</v>
+      </c>
+      <c r="O58" s="2">
         <v>2640</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P58" s="2">
+        <v>2890</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>2775</v>
+      </c>
+      <c r="R58" s="2">
+        <v>2890</v>
+      </c>
+      <c r="S58" s="2">
+        <v>2775</v>
+      </c>
+      <c r="T58" s="3">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1961,11 +4059,47 @@
       <c r="G59">
         <v>9500</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="2">
         <v>8200</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="2">
+        <v>8200</v>
+      </c>
+      <c r="J59" s="2">
+        <v>10200</v>
+      </c>
+      <c r="K59" s="2">
+        <v>10200</v>
+      </c>
+      <c r="L59" s="2">
+        <v>8900</v>
+      </c>
+      <c r="M59" s="2">
+        <v>10200</v>
+      </c>
+      <c r="N59" s="2">
+        <v>8200</v>
+      </c>
+      <c r="O59" s="2">
+        <v>8500</v>
+      </c>
+      <c r="P59" s="2">
+        <v>10200</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>10200</v>
+      </c>
+      <c r="R59" s="2">
+        <v>10200</v>
+      </c>
+      <c r="S59" s="2">
+        <v>10200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1987,11 +4121,47 @@
       <c r="G60">
         <v>6700</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="2">
+        <v>7900</v>
+      </c>
+      <c r="I60" s="2">
+        <v>7900</v>
+      </c>
+      <c r="J60" s="2">
+        <v>6550</v>
+      </c>
+      <c r="K60" s="2">
+        <v>7550</v>
+      </c>
+      <c r="L60" s="2">
+        <v>6550</v>
+      </c>
+      <c r="M60" s="2">
+        <v>7550</v>
+      </c>
+      <c r="N60" s="2">
+        <v>7100</v>
+      </c>
+      <c r="O60" s="2">
+        <v>7100</v>
+      </c>
+      <c r="P60" s="2">
+        <v>7550</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>7350</v>
+      </c>
+      <c r="R60" s="2">
+        <v>7550</v>
+      </c>
+      <c r="S60" s="2">
+        <v>7350</v>
+      </c>
+      <c r="T60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2013,11 +4183,47 @@
       <c r="G61">
         <v>72250</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="2">
+        <v>81500</v>
+      </c>
+      <c r="I61" s="2">
+        <v>81500</v>
+      </c>
+      <c r="J61" s="2">
+        <v>66750</v>
+      </c>
+      <c r="K61" s="2">
+        <v>72250</v>
+      </c>
+      <c r="L61" s="2">
+        <v>65500</v>
+      </c>
+      <c r="M61" s="2">
+        <v>72250</v>
+      </c>
+      <c r="N61" s="2">
+        <v>63250</v>
+      </c>
+      <c r="O61" s="2">
+        <v>62750</v>
+      </c>
+      <c r="P61" s="2">
+        <v>67500</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>72250</v>
+      </c>
+      <c r="R61" s="2">
+        <v>67500</v>
+      </c>
+      <c r="S61" s="2">
+        <v>72250</v>
+      </c>
+      <c r="T61" s="3">
         <v>61250</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2039,11 +4245,47 @@
       <c r="G62">
         <v>190</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="2">
+        <v>156</v>
+      </c>
+      <c r="J62" s="2">
+        <v>160</v>
+      </c>
+      <c r="K62" s="2">
+        <v>156</v>
+      </c>
+      <c r="L62" s="2">
+        <v>190</v>
+      </c>
+      <c r="M62" s="2">
+        <v>156</v>
+      </c>
+      <c r="N62" s="2">
+        <v>156</v>
+      </c>
+      <c r="O62" s="2">
+        <v>156</v>
+      </c>
+      <c r="P62" s="2">
+        <v>156</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>156</v>
+      </c>
+      <c r="R62" s="2">
+        <v>172</v>
+      </c>
+      <c r="S62" s="2">
+        <v>156</v>
+      </c>
+      <c r="T62" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2065,11 +4307,47 @@
       <c r="G63">
         <v>211</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="2">
+        <v>187</v>
+      </c>
+      <c r="I63" s="2">
+        <v>187</v>
+      </c>
+      <c r="J63" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K63" s="2">
+        <v>203</v>
+      </c>
+      <c r="L63" s="2">
+        <v>215</v>
+      </c>
+      <c r="M63" s="2">
+        <v>212</v>
+      </c>
+      <c r="N63" s="2">
+        <v>186</v>
+      </c>
+      <c r="O63" s="2">
+        <v>186</v>
+      </c>
+      <c r="P63" s="2">
+        <v>191</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>212</v>
+      </c>
+      <c r="R63" s="2">
+        <v>212</v>
+      </c>
+      <c r="S63" s="2">
+        <v>212</v>
+      </c>
+      <c r="T63" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2091,11 +4369,47 @@
       <c r="G64">
         <v>7750</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="2">
+        <v>8500</v>
+      </c>
+      <c r="I64" s="2">
+        <v>8500</v>
+      </c>
+      <c r="J64" s="2">
+        <v>8800</v>
+      </c>
+      <c r="K64" s="2">
+        <v>8900</v>
+      </c>
+      <c r="L64" s="2">
+        <v>10300</v>
+      </c>
+      <c r="M64" s="2">
+        <v>8900</v>
+      </c>
+      <c r="N64" s="2">
+        <v>10300</v>
+      </c>
+      <c r="O64" s="2">
+        <v>8500</v>
+      </c>
+      <c r="P64" s="2">
+        <v>10300</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>10300</v>
+      </c>
+      <c r="R64" s="2">
+        <v>10300</v>
+      </c>
+      <c r="S64" s="2">
+        <v>10300</v>
+      </c>
+      <c r="T64" s="3">
         <v>7750</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2117,11 +4431,47 @@
       <c r="G65">
         <v>12775</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="2">
+        <v>13525</v>
+      </c>
+      <c r="I65" s="2">
+        <v>13225</v>
+      </c>
+      <c r="J65" s="2">
+        <v>12475</v>
+      </c>
+      <c r="K65" s="2">
+        <v>12775</v>
+      </c>
+      <c r="L65" s="2">
+        <v>12775</v>
+      </c>
+      <c r="M65" s="2">
+        <v>12775</v>
+      </c>
+      <c r="N65" s="2">
+        <v>12850</v>
+      </c>
+      <c r="O65" s="2">
+        <v>12850</v>
+      </c>
+      <c r="P65" s="2">
+        <v>12475</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>12475</v>
+      </c>
+      <c r="R65" s="2">
+        <v>12475</v>
+      </c>
+      <c r="S65" s="2">
+        <v>12475</v>
+      </c>
+      <c r="T65" s="3">
         <v>1247</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2143,11 +4493,47 @@
       <c r="G66">
         <v>5600</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I66" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J66" s="2">
         <v>5600</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K66" s="2">
+        <v>5600</v>
+      </c>
+      <c r="L66" s="2">
+        <v>5600</v>
+      </c>
+      <c r="M66" s="2">
+        <v>5600</v>
+      </c>
+      <c r="N66" s="2">
+        <v>5600</v>
+      </c>
+      <c r="O66" s="2">
+        <v>5600</v>
+      </c>
+      <c r="P66" s="2">
+        <v>5600</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>5750</v>
+      </c>
+      <c r="R66" s="2">
+        <v>5750</v>
+      </c>
+      <c r="S66" s="2">
+        <v>5750</v>
+      </c>
+      <c r="T66" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2169,11 +4555,47 @@
       <c r="G67">
         <v>3400</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="2">
         <v>2850</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="2">
+        <v>2850</v>
+      </c>
+      <c r="J67" s="2">
+        <v>3400</v>
+      </c>
+      <c r="K67" s="2">
+        <v>3400</v>
+      </c>
+      <c r="L67" s="2">
+        <v>3400</v>
+      </c>
+      <c r="M67" s="2">
+        <v>3400</v>
+      </c>
+      <c r="N67" s="2">
+        <v>2850</v>
+      </c>
+      <c r="O67" s="2">
+        <v>2850</v>
+      </c>
+      <c r="P67" s="2">
+        <v>2900</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>3400</v>
+      </c>
+      <c r="R67" s="2">
+        <v>3400</v>
+      </c>
+      <c r="S67" s="2">
+        <v>3400</v>
+      </c>
+      <c r="T67" s="3">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2195,11 +4617,47 @@
       <c r="G68">
         <v>3500</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="2">
         <v>3320</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="J68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="K68" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="M68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="N68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="O68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="P68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="R68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="S68" s="2">
+        <v>3320</v>
+      </c>
+      <c r="T68" s="3">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2221,11 +4679,47 @@
       <c r="G69">
         <v>1440</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1440</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1440</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1440</v>
+      </c>
+      <c r="N69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>1440</v>
+      </c>
+      <c r="R69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1440</v>
+      </c>
+      <c r="T69" s="3">
         <v>1390</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2247,11 +4741,47 @@
       <c r="G70">
         <v>27850</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="2">
         <v>27850</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="J70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="K70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="L70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="M70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="N70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="O70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="P70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="R70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="S70" s="2">
+        <v>27850</v>
+      </c>
+      <c r="T70" s="3">
+        <v>27850</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2273,11 +4803,47 @@
       <c r="G71">
         <v>299</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="2">
+        <v>299</v>
+      </c>
+      <c r="I71" s="2">
+        <v>299</v>
+      </c>
+      <c r="J71" s="2">
+        <v>357</v>
+      </c>
+      <c r="K71" s="2">
+        <v>465</v>
+      </c>
+      <c r="L71" s="2">
+        <v>345</v>
+      </c>
+      <c r="M71" s="2">
+        <v>465</v>
+      </c>
+      <c r="N71" s="2">
+        <v>299</v>
+      </c>
+      <c r="O71" s="2">
+        <v>303</v>
+      </c>
+      <c r="P71" s="2">
+        <v>465</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>465</v>
+      </c>
+      <c r="R71" s="2">
+        <v>465</v>
+      </c>
+      <c r="S71" s="2">
+        <v>465</v>
+      </c>
+      <c r="T71" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2299,11 +4865,47 @@
       <c r="G72">
         <v>151</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="2">
+        <v>149</v>
+      </c>
+      <c r="J72" s="2">
+        <v>150</v>
+      </c>
+      <c r="K72" s="2">
+        <v>151</v>
+      </c>
+      <c r="L72" s="2">
+        <v>150</v>
+      </c>
+      <c r="M72" s="2">
+        <v>151</v>
+      </c>
+      <c r="N72" s="2">
+        <v>150</v>
+      </c>
+      <c r="O72" s="2">
+        <v>149</v>
+      </c>
+      <c r="P72" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>151</v>
+      </c>
+      <c r="R72" s="2">
+        <v>151</v>
+      </c>
+      <c r="S72" s="2">
+        <v>151</v>
+      </c>
+      <c r="T72" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2325,11 +4927,47 @@
       <c r="G73">
         <v>460</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="2">
+        <v>450</v>
+      </c>
+      <c r="J73" s="2">
+        <v>450</v>
+      </c>
+      <c r="K73" s="2">
+        <v>460</v>
+      </c>
+      <c r="L73" s="2">
+        <v>460</v>
+      </c>
+      <c r="M73" s="2">
+        <v>460</v>
+      </c>
+      <c r="N73" s="2">
+        <v>460</v>
+      </c>
+      <c r="O73" s="2">
+        <v>460</v>
+      </c>
+      <c r="P73" s="2">
+        <v>460</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>460</v>
+      </c>
+      <c r="R73" s="2">
+        <v>460</v>
+      </c>
+      <c r="S73" s="2">
+        <v>460</v>
+      </c>
+      <c r="T73" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2351,11 +4989,47 @@
       <c r="G74">
         <v>95</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="2">
+        <v>84</v>
+      </c>
+      <c r="I74" s="2">
+        <v>84</v>
+      </c>
+      <c r="J74" s="2">
+        <v>95</v>
+      </c>
+      <c r="K74" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L74" s="2">
+        <v>95</v>
+      </c>
+      <c r="M74" s="2">
+        <v>101</v>
+      </c>
+      <c r="N74" s="2">
+        <v>72</v>
+      </c>
+      <c r="O74" s="2">
+        <v>72</v>
+      </c>
+      <c r="P74" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>68</v>
+      </c>
+      <c r="R74" s="2">
+        <v>95</v>
+      </c>
+      <c r="S74" s="2">
+        <v>71</v>
+      </c>
+      <c r="T74" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2377,11 +5051,47 @@
       <c r="G75">
         <v>2310</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="2">
+        <v>2310</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2400</v>
+      </c>
+      <c r="J75" s="2">
+        <v>2415</v>
+      </c>
+      <c r="K75" s="2">
+        <v>2580</v>
+      </c>
+      <c r="L75" s="2">
+        <v>2615</v>
+      </c>
+      <c r="M75" s="2">
+        <v>2580</v>
+      </c>
+      <c r="N75" s="2">
+        <v>2425</v>
+      </c>
+      <c r="O75" s="2">
+        <v>2325</v>
+      </c>
+      <c r="P75" s="2">
+        <v>2490</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>2580</v>
+      </c>
+      <c r="R75" s="2">
+        <v>2810</v>
+      </c>
+      <c r="S75" s="2">
+        <v>2580</v>
+      </c>
+      <c r="T75" s="3">
         <v>2140</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2403,11 +5113,47 @@
       <c r="G76">
         <v>99</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" s="2">
+        <v>99</v>
+      </c>
+      <c r="K76" s="2">
+        <v>99</v>
+      </c>
+      <c r="L76" s="2">
+        <v>99</v>
+      </c>
+      <c r="M76" s="2">
+        <v>99</v>
+      </c>
+      <c r="N76" s="2">
+        <v>76</v>
+      </c>
+      <c r="O76" s="2">
+        <v>76</v>
+      </c>
+      <c r="P76" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>99</v>
+      </c>
+      <c r="R76" s="2">
+        <v>99</v>
+      </c>
+      <c r="S76" s="2">
+        <v>99</v>
+      </c>
+      <c r="T76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2429,11 +5175,47 @@
       <c r="G77">
         <v>1795</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="2">
+        <v>1835</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1835</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1855</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1855</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1855</v>
+      </c>
+      <c r="M77" s="2">
         <v>1795</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N77" s="2">
+        <v>2070</v>
+      </c>
+      <c r="O77" s="2">
+        <v>2080</v>
+      </c>
+      <c r="P77" s="2">
+        <v>1885</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>1885</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1885</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1885</v>
+      </c>
+      <c r="T77" s="3">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2455,11 +5237,47 @@
       <c r="G78">
         <v>2424</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="2">
         <v>2361</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="2">
+        <v>2361</v>
+      </c>
+      <c r="J78" s="2">
+        <v>2361</v>
+      </c>
+      <c r="K78" s="2">
+        <v>2361</v>
+      </c>
+      <c r="L78" s="2">
+        <v>2361</v>
+      </c>
+      <c r="M78" s="2">
+        <v>2361</v>
+      </c>
+      <c r="N78" s="2">
+        <v>2606</v>
+      </c>
+      <c r="O78" s="2">
+        <v>2616</v>
+      </c>
+      <c r="P78" s="2">
+        <v>2566</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>2566</v>
+      </c>
+      <c r="R78" s="2">
+        <v>2566</v>
+      </c>
+      <c r="S78" s="2">
+        <v>2566</v>
+      </c>
+      <c r="T78" s="3">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2481,11 +5299,47 @@
       <c r="G79">
         <v>194</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="2">
+        <v>192</v>
+      </c>
+      <c r="J79" s="2">
+        <v>190</v>
+      </c>
+      <c r="K79" s="2">
+        <v>194</v>
+      </c>
+      <c r="L79" s="2">
+        <v>216</v>
+      </c>
+      <c r="M79" s="2">
+        <v>190</v>
+      </c>
+      <c r="N79" s="2">
+        <v>192</v>
+      </c>
+      <c r="O79" s="2">
+        <v>190</v>
+      </c>
+      <c r="P79" s="2">
+        <v>208</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>194</v>
+      </c>
+      <c r="R79" s="2">
+        <v>216</v>
+      </c>
+      <c r="S79" s="2">
+        <v>190</v>
+      </c>
+      <c r="T79" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2507,11 +5361,47 @@
       <c r="G80">
         <v>88</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="2">
+        <v>92</v>
+      </c>
+      <c r="I80" s="2">
+        <v>92</v>
+      </c>
+      <c r="J80" s="2">
+        <v>88</v>
+      </c>
+      <c r="K80" s="2">
+        <v>88</v>
+      </c>
+      <c r="L80" s="2">
+        <v>88</v>
+      </c>
+      <c r="M80" s="2">
+        <v>88</v>
+      </c>
+      <c r="N80" s="2">
+        <v>92</v>
+      </c>
+      <c r="O80" s="2">
+        <v>92</v>
+      </c>
+      <c r="P80" s="2">
+        <v>88</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>88</v>
+      </c>
+      <c r="R80" s="2">
+        <v>88</v>
+      </c>
+      <c r="S80" s="2">
+        <v>88</v>
+      </c>
+      <c r="T80" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2533,11 +5423,47 @@
       <c r="G81">
         <v>2819800</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="2">
+        <v>2657000</v>
+      </c>
+      <c r="I81" s="2">
+        <v>2657000</v>
+      </c>
+      <c r="J81" s="2">
+        <v>2691200</v>
+      </c>
+      <c r="K81" s="2">
+        <v>2819800</v>
+      </c>
+      <c r="L81" s="2">
+        <v>2740300</v>
+      </c>
+      <c r="M81" s="2">
+        <v>2694000</v>
+      </c>
+      <c r="N81" s="2">
         <v>2655600</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O81" s="2">
+        <v>2655600</v>
+      </c>
+      <c r="P81" s="2">
+        <v>2691200</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>2827400</v>
+      </c>
+      <c r="R81" s="2">
+        <v>2734800</v>
+      </c>
+      <c r="S81" s="2">
+        <v>2827400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>2655600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2559,11 +5485,47 @@
       <c r="G82">
         <v>256</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="2">
+        <v>248</v>
+      </c>
+      <c r="I82" s="2">
+        <v>248</v>
+      </c>
+      <c r="J82" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K82" s="2">
+        <v>256</v>
+      </c>
+      <c r="L82" s="2">
+        <v>240</v>
+      </c>
+      <c r="M82" s="2">
+        <v>256</v>
+      </c>
+      <c r="N82" s="2">
+        <v>241</v>
+      </c>
+      <c r="O82" s="2">
+        <v>241</v>
+      </c>
+      <c r="P82" s="2">
+        <v>241</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>256</v>
+      </c>
+      <c r="R82" s="2">
+        <v>241</v>
+      </c>
+      <c r="S82" s="2">
+        <v>256</v>
+      </c>
+      <c r="T82" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2585,11 +5547,47 @@
       <c r="G83">
         <v>77</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" s="2">
+        <v>68</v>
+      </c>
+      <c r="J83" s="2">
+        <v>72</v>
+      </c>
+      <c r="K83" s="2">
+        <v>77</v>
+      </c>
+      <c r="L83" s="2">
+        <v>77</v>
+      </c>
+      <c r="M83" s="2">
+        <v>77</v>
+      </c>
+      <c r="N83" s="2">
+        <v>71</v>
+      </c>
+      <c r="O83" s="2">
+        <v>68</v>
+      </c>
+      <c r="P83" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" s="2">
+        <v>71</v>
+      </c>
+      <c r="S83" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2611,11 +5609,47 @@
       <c r="G84">
         <v>144</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="2">
+        <v>150</v>
+      </c>
+      <c r="I84" s="2">
+        <v>150</v>
+      </c>
+      <c r="J84" s="2">
+        <v>150</v>
+      </c>
+      <c r="K84" s="2">
+        <v>144</v>
+      </c>
+      <c r="L84" s="2">
+        <v>144</v>
+      </c>
+      <c r="M84" s="2">
+        <v>144</v>
+      </c>
+      <c r="N84" s="2">
+        <v>150</v>
+      </c>
+      <c r="O84" s="2">
+        <v>150</v>
+      </c>
+      <c r="P84" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>144</v>
+      </c>
+      <c r="R84" s="2">
+        <v>150</v>
+      </c>
+      <c r="S84" s="2">
+        <v>144</v>
+      </c>
+      <c r="T84" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2637,11 +5671,47 @@
       <c r="G85">
         <v>830</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="2">
         <v>820</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="2">
+        <v>820</v>
+      </c>
+      <c r="J85" s="2">
+        <v>820</v>
+      </c>
+      <c r="K85" s="2">
+        <v>820</v>
+      </c>
+      <c r="L85" s="2">
+        <v>820</v>
+      </c>
+      <c r="M85" s="2">
+        <v>820</v>
+      </c>
+      <c r="N85" s="2">
+        <v>820</v>
+      </c>
+      <c r="O85" s="2">
+        <v>820</v>
+      </c>
+      <c r="P85" s="2">
+        <v>820</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>820</v>
+      </c>
+      <c r="R85" s="2">
+        <v>820</v>
+      </c>
+      <c r="S85" s="2">
+        <v>820</v>
+      </c>
+      <c r="T85" s="3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2663,11 +5733,47 @@
       <c r="G86">
         <v>63</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="2">
+        <v>49</v>
+      </c>
+      <c r="J86" s="2">
+        <v>63</v>
+      </c>
+      <c r="K86" s="2">
+        <v>63</v>
+      </c>
+      <c r="L86" s="2">
+        <v>63</v>
+      </c>
+      <c r="M86" s="2">
+        <v>63</v>
+      </c>
+      <c r="N86" s="2">
+        <v>53</v>
+      </c>
+      <c r="O86" s="2">
+        <v>63</v>
+      </c>
+      <c r="P86" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>63</v>
+      </c>
+      <c r="R86" s="2">
+        <v>63</v>
+      </c>
+      <c r="S86" s="2">
+        <v>63</v>
+      </c>
+      <c r="T86" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2689,11 +5795,47 @@
       <c r="G87">
         <v>361</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="2">
+        <v>303</v>
+      </c>
+      <c r="I87" s="2">
+        <v>303</v>
+      </c>
+      <c r="J87" s="2">
         <v>267</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K87" s="2">
+        <v>267</v>
+      </c>
+      <c r="L87" s="2">
+        <v>299</v>
+      </c>
+      <c r="M87" s="2">
+        <v>267</v>
+      </c>
+      <c r="N87" s="2">
+        <v>267</v>
+      </c>
+      <c r="O87" s="2">
+        <v>267</v>
+      </c>
+      <c r="P87" s="2">
+        <v>267</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>267</v>
+      </c>
+      <c r="R87" s="2">
+        <v>267</v>
+      </c>
+      <c r="S87" s="2">
+        <v>267</v>
+      </c>
+      <c r="T87" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2715,11 +5857,47 @@
       <c r="G88">
         <v>94668559916</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="2">
+        <v>94307645187</v>
+      </c>
+      <c r="I88" s="2">
+        <v>94307645187</v>
+      </c>
+      <c r="J88" s="2">
+        <v>94376471187</v>
+      </c>
+      <c r="K88" s="2">
+        <v>94645488687</v>
+      </c>
+      <c r="L88" s="2">
+        <v>94376471187</v>
+      </c>
+      <c r="M88" s="2">
+        <v>94661129187</v>
+      </c>
+      <c r="N88" s="2">
+        <v>94376471187</v>
+      </c>
+      <c r="O88" s="2">
+        <v>94515423958</v>
+      </c>
+      <c r="P88" s="2">
+        <v>94376471187</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>94592303187</v>
+      </c>
+      <c r="R88" s="2">
+        <v>94376471187</v>
+      </c>
+      <c r="S88" s="2">
+        <v>94592303187</v>
+      </c>
+      <c r="T88" s="5">
         <v>94548650000</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2741,11 +5919,47 @@
       <c r="G89">
         <v>610</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="2">
+        <v>650</v>
+      </c>
+      <c r="I89" s="2">
+        <v>650</v>
+      </c>
+      <c r="J89" s="2">
         <v>610</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K89" s="2">
+        <v>610</v>
+      </c>
+      <c r="L89" s="2">
+        <v>610</v>
+      </c>
+      <c r="M89" s="2">
+        <v>610</v>
+      </c>
+      <c r="N89" s="2">
+        <v>650</v>
+      </c>
+      <c r="O89" s="2">
+        <v>610</v>
+      </c>
+      <c r="P89" s="2">
+        <v>610</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>610</v>
+      </c>
+      <c r="R89" s="2">
+        <v>610</v>
+      </c>
+      <c r="S89" s="2">
+        <v>610</v>
+      </c>
+      <c r="T89" s="3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2767,11 +5981,47 @@
       <c r="G90">
         <v>660</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="2">
         <v>490</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="2">
+        <v>490</v>
+      </c>
+      <c r="J90" s="2">
+        <v>660</v>
+      </c>
+      <c r="K90" s="2">
+        <v>660</v>
+      </c>
+      <c r="L90" s="2">
+        <v>660</v>
+      </c>
+      <c r="M90" s="2">
+        <v>660</v>
+      </c>
+      <c r="N90" s="2">
+        <v>490</v>
+      </c>
+      <c r="O90" s="2">
+        <v>490</v>
+      </c>
+      <c r="P90" s="2">
+        <v>660</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>660</v>
+      </c>
+      <c r="R90" s="2">
+        <v>660</v>
+      </c>
+      <c r="S90" s="2">
+        <v>660</v>
+      </c>
+      <c r="T90" s="3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2793,11 +6043,47 @@
       <c r="G91">
         <v>1481</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="2">
+        <v>1498</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1498</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1497</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1497</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1497</v>
+      </c>
+      <c r="M91" s="2">
+        <v>1497</v>
+      </c>
+      <c r="N91" s="2">
         <v>1401</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O91" s="2">
+        <v>1401</v>
+      </c>
+      <c r="P91" s="2">
+        <v>1466</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>1497</v>
+      </c>
+      <c r="R91" s="2">
+        <v>1466</v>
+      </c>
+      <c r="S91" s="2">
+        <v>1497</v>
+      </c>
+      <c r="T91" s="3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2819,11 +6105,47 @@
       <c r="G92">
         <v>594</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="2">
+        <v>586</v>
+      </c>
+      <c r="I92" s="2">
+        <v>586</v>
+      </c>
+      <c r="J92" s="2">
+        <v>813</v>
+      </c>
+      <c r="K92" s="2">
+        <v>801</v>
+      </c>
+      <c r="L92" s="2">
+        <v>813</v>
+      </c>
+      <c r="M92" s="2">
+        <v>801</v>
+      </c>
+      <c r="N92" s="2">
+        <v>596</v>
+      </c>
+      <c r="O92" s="2">
+        <v>602</v>
+      </c>
+      <c r="P92" s="2">
+        <v>813</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>801</v>
+      </c>
+      <c r="R92" s="2">
+        <v>813</v>
+      </c>
+      <c r="S92" s="2">
+        <v>801</v>
+      </c>
+      <c r="T92" s="3">
         <v>505</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2845,11 +6167,47 @@
       <c r="G93">
         <v>1006</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="2">
+        <v>801</v>
+      </c>
+      <c r="I93" s="2">
+        <v>876</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1077</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1045</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1077</v>
+      </c>
+      <c r="M93" s="2">
+        <v>1043</v>
+      </c>
+      <c r="N93" s="2">
+        <v>919</v>
+      </c>
+      <c r="O93" s="2">
+        <v>922</v>
+      </c>
+      <c r="P93" s="2">
+        <v>1110</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1045</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1110</v>
+      </c>
+      <c r="S93" s="2">
+        <v>896</v>
+      </c>
+      <c r="T93" s="3">
         <v>722</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2871,11 +6229,47 @@
       <c r="G94">
         <v>820</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="2">
         <v>820</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="2">
+        <v>820</v>
+      </c>
+      <c r="J94" s="2">
+        <v>880</v>
+      </c>
+      <c r="K94" s="2">
+        <v>880</v>
+      </c>
+      <c r="L94" s="2">
+        <v>880</v>
+      </c>
+      <c r="M94" s="2">
+        <v>880</v>
+      </c>
+      <c r="N94" s="2">
+        <v>820</v>
+      </c>
+      <c r="O94" s="2">
+        <v>820</v>
+      </c>
+      <c r="P94" s="2">
+        <v>880</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>880</v>
+      </c>
+      <c r="R94" s="2">
+        <v>880</v>
+      </c>
+      <c r="S94" s="2">
+        <v>880</v>
+      </c>
+      <c r="T94" s="3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2897,11 +6291,47 @@
       <c r="G95">
         <v>250</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="2">
+        <v>286</v>
+      </c>
+      <c r="I95" s="2">
+        <v>286</v>
+      </c>
+      <c r="J95" s="2">
+        <v>286</v>
+      </c>
+      <c r="K95" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L95" s="2">
+        <v>286</v>
+      </c>
+      <c r="M95" s="2">
+        <v>250</v>
+      </c>
+      <c r="N95" s="2">
+        <v>286</v>
+      </c>
+      <c r="O95" s="2">
+        <v>286</v>
+      </c>
+      <c r="P95" s="2">
+        <v>286</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>250</v>
+      </c>
+      <c r="R95" s="2">
+        <v>286</v>
+      </c>
+      <c r="S95" s="2">
+        <v>250</v>
+      </c>
+      <c r="T95" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2923,11 +6353,47 @@
       <c r="G96">
         <v>924</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="2">
         <v>870</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="2">
+        <v>870</v>
+      </c>
+      <c r="J96" s="2">
+        <v>876</v>
+      </c>
+      <c r="K96" s="2">
+        <v>924</v>
+      </c>
+      <c r="L96" s="2">
+        <v>909</v>
+      </c>
+      <c r="M96" s="2">
+        <v>924</v>
+      </c>
+      <c r="N96" s="2">
+        <v>870</v>
+      </c>
+      <c r="O96" s="2">
+        <v>870</v>
+      </c>
+      <c r="P96" s="2">
+        <v>870</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>924</v>
+      </c>
+      <c r="R96" s="2">
+        <v>870</v>
+      </c>
+      <c r="S96" s="2">
+        <v>924</v>
+      </c>
+      <c r="T96" s="3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2949,11 +6415,47 @@
       <c r="G97">
         <v>1580</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="2">
         <v>1580</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="2">
+        <v>1580</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="M97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="N97" s="2">
+        <v>1580</v>
+      </c>
+      <c r="O97" s="2">
+        <v>1580</v>
+      </c>
+      <c r="P97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="S97" s="2">
+        <v>1810</v>
+      </c>
+      <c r="T97" s="3">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2975,11 +6477,47 @@
       <c r="G98">
         <v>45</v>
       </c>
-      <c r="H98" s="8">
+      <c r="H98" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" s="2">
+        <v>40</v>
+      </c>
+      <c r="K98" s="2">
+        <v>45</v>
+      </c>
+      <c r="L98" s="2">
+        <v>42</v>
+      </c>
+      <c r="M98" s="2">
+        <v>45</v>
+      </c>
+      <c r="N98" s="2">
+        <v>40</v>
+      </c>
+      <c r="O98" s="2">
+        <v>42</v>
+      </c>
+      <c r="P98" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>45</v>
+      </c>
+      <c r="R98" s="2">
+        <v>42</v>
+      </c>
+      <c r="S98" s="2">
+        <v>45</v>
+      </c>
+      <c r="T98" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3001,11 +6539,47 @@
       <c r="G99">
         <v>141</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="2">
+        <v>124</v>
+      </c>
+      <c r="I99" s="2">
+        <v>130</v>
+      </c>
+      <c r="J99" s="2">
+        <v>129</v>
+      </c>
+      <c r="K99" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L99" s="2">
+        <v>141</v>
+      </c>
+      <c r="M99" s="2">
+        <v>147</v>
+      </c>
+      <c r="N99" s="2">
+        <v>118</v>
+      </c>
+      <c r="O99" s="2">
+        <v>118</v>
+      </c>
+      <c r="P99" s="2">
+        <v>114</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>114</v>
+      </c>
+      <c r="R99" s="2">
+        <v>141</v>
+      </c>
+      <c r="S99" s="2">
+        <v>117</v>
+      </c>
+      <c r="T99" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3027,11 +6601,47 @@
       <c r="G100">
         <v>430</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="2">
+        <v>470</v>
+      </c>
+      <c r="I100" s="2">
+        <v>470</v>
+      </c>
+      <c r="J100" s="2">
+        <v>520</v>
+      </c>
+      <c r="K100" s="2">
+        <v>520</v>
+      </c>
+      <c r="L100" s="2">
+        <v>520</v>
+      </c>
+      <c r="M100" s="2">
+        <v>520</v>
+      </c>
+      <c r="N100" s="2">
+        <v>510</v>
+      </c>
+      <c r="O100" s="2">
+        <v>450</v>
+      </c>
+      <c r="P100" s="2">
+        <v>450</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>520</v>
+      </c>
+      <c r="R100" s="2">
+        <v>500</v>
+      </c>
+      <c r="S100" s="2">
+        <v>520</v>
+      </c>
+      <c r="T100" s="3">
         <v>430</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3053,11 +6663,47 @@
       <c r="G101">
         <v>23</v>
       </c>
-      <c r="H101" s="8">
+      <c r="H101" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" s="2">
+        <v>23</v>
+      </c>
+      <c r="J101" s="2">
+        <v>23</v>
+      </c>
+      <c r="K101" s="2">
+        <v>23</v>
+      </c>
+      <c r="L101" s="2">
+        <v>23</v>
+      </c>
+      <c r="M101" s="2">
+        <v>23</v>
+      </c>
+      <c r="N101" s="2">
+        <v>23</v>
+      </c>
+      <c r="O101" s="2">
+        <v>23</v>
+      </c>
+      <c r="P101" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>23</v>
+      </c>
+      <c r="R101" s="2">
+        <v>23</v>
+      </c>
+      <c r="S101" s="2">
+        <v>23</v>
+      </c>
+      <c r="T101" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3079,11 +6725,47 @@
       <c r="G102">
         <v>102</v>
       </c>
-      <c r="H102" s="8">
+      <c r="H102" s="2">
+        <v>98</v>
+      </c>
+      <c r="I102" s="2">
+        <v>98</v>
+      </c>
+      <c r="J102" s="2">
+        <v>98</v>
+      </c>
+      <c r="K102" s="2">
+        <v>103</v>
+      </c>
+      <c r="L102" s="2">
+        <v>101</v>
+      </c>
+      <c r="M102" s="2">
+        <v>103</v>
+      </c>
+      <c r="N102" s="2">
+        <v>100</v>
+      </c>
+      <c r="O102" s="2">
+        <v>100</v>
+      </c>
+      <c r="P102" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>103</v>
+      </c>
+      <c r="R102" s="2">
+        <v>100</v>
+      </c>
+      <c r="S102" s="2">
+        <v>103</v>
+      </c>
+      <c r="T102" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3105,11 +6787,47 @@
       <c r="G103">
         <v>796</v>
       </c>
-      <c r="H103" s="8">
+      <c r="H103" s="2">
         <v>796</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" s="2">
+        <v>796</v>
+      </c>
+      <c r="J103" s="2">
+        <v>796</v>
+      </c>
+      <c r="K103" s="2">
+        <v>796</v>
+      </c>
+      <c r="L103" s="2">
+        <v>820</v>
+      </c>
+      <c r="M103" s="2">
+        <v>796</v>
+      </c>
+      <c r="N103" s="2">
+        <v>811</v>
+      </c>
+      <c r="O103" s="2">
+        <v>796</v>
+      </c>
+      <c r="P103" s="2">
+        <v>796</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>796</v>
+      </c>
+      <c r="R103" s="2">
+        <v>1037</v>
+      </c>
+      <c r="S103" s="2">
+        <v>820</v>
+      </c>
+      <c r="T103" s="3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3131,11 +6849,47 @@
       <c r="G104">
         <v>1080</v>
       </c>
-      <c r="H104" s="8">
+      <c r="H104" s="2">
         <v>960</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" s="2">
+        <v>960</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1080</v>
+      </c>
+      <c r="K104" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L104" s="2">
+        <v>1080</v>
+      </c>
+      <c r="M104" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N104" s="2">
+        <v>970</v>
+      </c>
+      <c r="O104" s="2">
+        <v>970</v>
+      </c>
+      <c r="P104" s="2">
+        <v>1080</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>1080</v>
+      </c>
+      <c r="R104" s="2">
+        <v>1080</v>
+      </c>
+      <c r="S104" s="2">
+        <v>1080</v>
+      </c>
+      <c r="T104" s="3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3157,11 +6911,47 @@
       <c r="G105">
         <v>606</v>
       </c>
-      <c r="H105" s="8">
+      <c r="H105" s="2">
+        <v>630</v>
+      </c>
+      <c r="I105" s="2">
+        <v>630</v>
+      </c>
+      <c r="J105" s="2">
         <v>606</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K105" s="2">
+        <v>606</v>
+      </c>
+      <c r="L105" s="2">
+        <v>606</v>
+      </c>
+      <c r="M105" s="2">
+        <v>606</v>
+      </c>
+      <c r="N105" s="2">
+        <v>630</v>
+      </c>
+      <c r="O105" s="2">
+        <v>606</v>
+      </c>
+      <c r="P105" s="2">
+        <v>606</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>606</v>
+      </c>
+      <c r="R105" s="2">
+        <v>606</v>
+      </c>
+      <c r="S105" s="2">
+        <v>606</v>
+      </c>
+      <c r="T105" s="3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3183,11 +6973,47 @@
       <c r="G106">
         <v>1465</v>
       </c>
-      <c r="H106" s="8">
+      <c r="H106" s="2">
+        <v>1555</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1555</v>
+      </c>
+      <c r="J106" s="2">
         <v>1465</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K106" s="2">
+        <v>1465</v>
+      </c>
+      <c r="L106" s="2">
+        <v>1465</v>
+      </c>
+      <c r="M106" s="2">
+        <v>1465</v>
+      </c>
+      <c r="N106" s="2">
+        <v>1555</v>
+      </c>
+      <c r="O106" s="2">
+        <v>1555</v>
+      </c>
+      <c r="P106" s="2">
+        <v>1465</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>1465</v>
+      </c>
+      <c r="R106" s="2">
+        <v>1465</v>
+      </c>
+      <c r="S106" s="2">
+        <v>1465</v>
+      </c>
+      <c r="T106" s="3">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3209,11 +7035,47 @@
       <c r="G107">
         <v>4720</v>
       </c>
-      <c r="H107" s="8">
+      <c r="H107" s="2">
+        <v>4780</v>
+      </c>
+      <c r="I107" s="2">
+        <v>4780</v>
+      </c>
+      <c r="J107" s="2">
+        <v>4970</v>
+      </c>
+      <c r="K107" s="2">
+        <v>4970</v>
+      </c>
+      <c r="L107" s="2">
+        <v>5230</v>
+      </c>
+      <c r="M107" s="2">
+        <v>4970</v>
+      </c>
+      <c r="N107" s="2">
+        <v>4820</v>
+      </c>
+      <c r="O107" s="2">
+        <v>4780</v>
+      </c>
+      <c r="P107" s="2">
+        <v>5060</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>5060</v>
+      </c>
+      <c r="R107" s="2">
+        <v>5420</v>
+      </c>
+      <c r="S107" s="2">
+        <v>5060</v>
+      </c>
+      <c r="T107" s="3">
         <v>4720</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3235,11 +7097,47 @@
       <c r="G108">
         <v>256</v>
       </c>
-      <c r="H108" s="8">
+      <c r="H108" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" s="2">
+        <v>232</v>
+      </c>
+      <c r="J108" s="2">
+        <v>377</v>
+      </c>
+      <c r="K108" s="2">
+        <v>377</v>
+      </c>
+      <c r="L108" s="2">
+        <v>329</v>
+      </c>
+      <c r="M108" s="2">
+        <v>377</v>
+      </c>
+      <c r="N108" s="2">
+        <v>232</v>
+      </c>
+      <c r="O108" s="2">
+        <v>269</v>
+      </c>
+      <c r="P108" s="2">
+        <v>377</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>377</v>
+      </c>
+      <c r="R108" s="2">
+        <v>329</v>
+      </c>
+      <c r="S108" s="2">
+        <v>377</v>
+      </c>
+      <c r="T108" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3261,11 +7159,47 @@
       <c r="G109">
         <v>132</v>
       </c>
-      <c r="H109" s="8">
+      <c r="H109" s="2">
+        <v>114</v>
+      </c>
+      <c r="I109" s="2">
+        <v>114</v>
+      </c>
+      <c r="J109" s="2">
+        <v>129</v>
+      </c>
+      <c r="K109" s="2">
+        <v>132</v>
+      </c>
+      <c r="L109" s="2">
+        <v>132</v>
+      </c>
+      <c r="M109" s="2">
+        <v>132</v>
+      </c>
+      <c r="N109" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O109" s="2">
+        <v>114</v>
+      </c>
+      <c r="P109" s="2">
+        <v>129</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>132</v>
+      </c>
+      <c r="R109" s="2">
+        <v>141</v>
+      </c>
+      <c r="S109" s="2">
+        <v>132</v>
+      </c>
+      <c r="T109" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3287,11 +7221,47 @@
       <c r="G110">
         <v>111</v>
       </c>
-      <c r="H110" s="8">
+      <c r="H110" s="2">
+        <v>129</v>
+      </c>
+      <c r="I110" s="2">
+        <v>129</v>
+      </c>
+      <c r="J110" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K110" s="2">
+        <v>109</v>
+      </c>
+      <c r="L110" s="2">
+        <v>109</v>
+      </c>
+      <c r="M110" s="2">
+        <v>109</v>
+      </c>
+      <c r="N110" s="2">
+        <v>129</v>
+      </c>
+      <c r="O110" s="2">
+        <v>113</v>
+      </c>
+      <c r="P110" s="2">
+        <v>109</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>111</v>
+      </c>
+      <c r="R110" s="2">
+        <v>124</v>
+      </c>
+      <c r="S110" s="2">
+        <v>111</v>
+      </c>
+      <c r="T110" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3313,11 +7283,47 @@
       <c r="G111">
         <v>960</v>
       </c>
-      <c r="H111" s="8">
+      <c r="H111" s="2">
+        <v>990</v>
+      </c>
+      <c r="I111" s="2">
+        <v>990</v>
+      </c>
+      <c r="J111" s="2">
+        <v>960</v>
+      </c>
+      <c r="K111" s="2">
+        <v>960</v>
+      </c>
+      <c r="L111" s="2">
+        <v>960</v>
+      </c>
+      <c r="M111" s="2">
+        <v>960</v>
+      </c>
+      <c r="N111" s="2">
+        <v>960</v>
+      </c>
+      <c r="O111" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P111" s="2">
+        <v>960</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>960</v>
+      </c>
+      <c r="R111" s="2">
+        <v>960</v>
+      </c>
+      <c r="S111" s="2">
+        <v>960</v>
+      </c>
+      <c r="T111" s="3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3339,11 +7345,47 @@
       <c r="G112">
         <v>1730</v>
       </c>
-      <c r="H112" s="8">
+      <c r="H112" s="2">
         <v>1670</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" s="2">
+        <v>1670</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1880</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1880</v>
+      </c>
+      <c r="L112" s="2">
+        <v>2240</v>
+      </c>
+      <c r="M112" s="2">
+        <v>1880</v>
+      </c>
+      <c r="N112" s="2">
+        <v>1680</v>
+      </c>
+      <c r="O112" s="2">
+        <v>1680</v>
+      </c>
+      <c r="P112" s="2">
+        <v>1670</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>1690</v>
+      </c>
+      <c r="R112" s="2">
+        <v>1670</v>
+      </c>
+      <c r="S112" s="2">
+        <v>1670</v>
+      </c>
+      <c r="T112" s="3">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3365,11 +7407,47 @@
       <c r="G113">
         <v>2620</v>
       </c>
-      <c r="H113" s="8">
+      <c r="H113" s="2">
+        <v>2400</v>
+      </c>
+      <c r="I113" s="2">
+        <v>2400</v>
+      </c>
+      <c r="J113" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K113" s="2">
+        <v>2480</v>
+      </c>
+      <c r="L113" s="2">
+        <v>3760</v>
+      </c>
+      <c r="M113" s="2">
+        <v>2600</v>
+      </c>
+      <c r="N113" s="2">
+        <v>2440</v>
+      </c>
+      <c r="O113" s="2">
+        <v>2400</v>
+      </c>
+      <c r="P113" s="2">
+        <v>2360</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2360</v>
+      </c>
+      <c r="R113" s="2">
+        <v>3860</v>
+      </c>
+      <c r="S113" s="2">
+        <v>2600</v>
+      </c>
+      <c r="T113" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3391,11 +7469,47 @@
       <c r="G114">
         <v>2500</v>
       </c>
-      <c r="H114" s="8">
+      <c r="H114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="J114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="K114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="M114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="N114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="O114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="P114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="R114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="S114" s="2">
+        <v>2500</v>
+      </c>
+      <c r="T114" s="3">
         <v>2460</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3417,11 +7531,47 @@
       <c r="G115">
         <v>291</v>
       </c>
-      <c r="H115" s="8">
+      <c r="H115" s="2">
+        <v>327</v>
+      </c>
+      <c r="I115" s="2">
+        <v>327</v>
+      </c>
+      <c r="J115" s="2">
+        <v>327</v>
+      </c>
+      <c r="K115" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L115" s="2">
+        <v>327</v>
+      </c>
+      <c r="M115" s="2">
+        <v>291</v>
+      </c>
+      <c r="N115" s="2">
+        <v>291</v>
+      </c>
+      <c r="O115" s="2">
+        <v>291</v>
+      </c>
+      <c r="P115" s="2">
+        <v>291</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>291</v>
+      </c>
+      <c r="R115" s="2">
+        <v>291</v>
+      </c>
+      <c r="S115" s="2">
+        <v>291</v>
+      </c>
+      <c r="T115" s="3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3443,11 +7593,47 @@
       <c r="G116">
         <v>1972000</v>
       </c>
-      <c r="H116" s="9">
+      <c r="H116" s="2">
+        <v>2703000</v>
+      </c>
+      <c r="I116" s="2">
+        <v>2703000</v>
+      </c>
+      <c r="J116" s="2">
+        <v>2908100</v>
+      </c>
+      <c r="K116" s="2">
+        <v>3131300</v>
+      </c>
+      <c r="L116" s="2">
+        <v>3131300</v>
+      </c>
+      <c r="M116" s="2">
+        <v>3131300</v>
+      </c>
+      <c r="N116" s="2">
+        <v>2707200</v>
+      </c>
+      <c r="O116" s="2">
+        <v>2575600</v>
+      </c>
+      <c r="P116" s="2">
+        <v>2908100</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>3131300</v>
+      </c>
+      <c r="R116" s="2">
+        <v>3138500</v>
+      </c>
+      <c r="S116" s="2">
+        <v>3131300</v>
+      </c>
+      <c r="T116" s="4">
         <v>1972000</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3469,11 +7655,47 @@
       <c r="G117">
         <v>2090</v>
       </c>
-      <c r="H117" s="8">
+      <c r="H117" s="2">
+        <v>2120</v>
+      </c>
+      <c r="I117" s="2">
+        <v>2120</v>
+      </c>
+      <c r="J117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="K117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="L117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="M117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="N117" s="2">
+        <v>2350</v>
+      </c>
+      <c r="O117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="P117" s="2">
+        <v>2350</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="R117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="S117" s="2">
+        <v>2260</v>
+      </c>
+      <c r="T117" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3495,11 +7717,47 @@
       <c r="G118">
         <v>99</v>
       </c>
-      <c r="H118" s="8">
+      <c r="H118" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" s="2">
+        <v>90</v>
+      </c>
+      <c r="J118" s="2">
+        <v>99</v>
+      </c>
+      <c r="K118" s="2">
+        <v>99</v>
+      </c>
+      <c r="L118" s="2">
+        <v>99</v>
+      </c>
+      <c r="M118" s="2">
+        <v>99</v>
+      </c>
+      <c r="N118" s="2">
+        <v>100</v>
+      </c>
+      <c r="O118" s="2">
+        <v>100</v>
+      </c>
+      <c r="P118" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>99</v>
+      </c>
+      <c r="R118" s="2">
+        <v>99</v>
+      </c>
+      <c r="S118" s="2">
+        <v>99</v>
+      </c>
+      <c r="T118" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3521,11 +7779,47 @@
       <c r="G119">
         <v>7605</v>
       </c>
-      <c r="H119" s="8">
+      <c r="H119" s="2">
         <v>7605</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" s="2">
+        <v>7605</v>
+      </c>
+      <c r="J119" s="2">
+        <v>7835</v>
+      </c>
+      <c r="K119" s="2">
+        <v>7815</v>
+      </c>
+      <c r="L119" s="2">
+        <v>7835</v>
+      </c>
+      <c r="M119" s="2">
+        <v>7815</v>
+      </c>
+      <c r="N119" s="2">
+        <v>7605</v>
+      </c>
+      <c r="O119" s="2">
+        <v>7605</v>
+      </c>
+      <c r="P119" s="2">
+        <v>7835</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>7815</v>
+      </c>
+      <c r="R119" s="2">
+        <v>7835</v>
+      </c>
+      <c r="S119" s="2">
+        <v>7815</v>
+      </c>
+      <c r="T119" s="3">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3547,11 +7841,47 @@
       <c r="G120">
         <v>57500</v>
       </c>
-      <c r="H120" s="8">
+      <c r="H120" s="2">
         <v>57500</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" s="2">
+        <v>57500</v>
+      </c>
+      <c r="J120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="K120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="L120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="M120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="N120" s="2">
+        <v>57500</v>
+      </c>
+      <c r="O120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="P120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="R120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="S120" s="2">
+        <v>59500</v>
+      </c>
+      <c r="T120" s="3">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3573,11 +7903,47 @@
       <c r="G121">
         <v>1705</v>
       </c>
-      <c r="H121" s="8">
+      <c r="H121" s="2">
+        <v>1745</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1745</v>
+      </c>
+      <c r="J121" s="2">
         <v>1635</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K121" s="2">
+        <v>1665</v>
+      </c>
+      <c r="L121" s="2">
+        <v>1705</v>
+      </c>
+      <c r="M121" s="2">
+        <v>1705</v>
+      </c>
+      <c r="N121" s="2">
+        <v>1795</v>
+      </c>
+      <c r="O121" s="2">
+        <v>1635</v>
+      </c>
+      <c r="P121" s="2">
+        <v>1635</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>1635</v>
+      </c>
+      <c r="R121" s="2">
+        <v>1665</v>
+      </c>
+      <c r="S121" s="2">
+        <v>1665</v>
+      </c>
+      <c r="T121" s="3">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3599,11 +7965,47 @@
       <c r="G122">
         <v>2090</v>
       </c>
-      <c r="H122" s="8">
+      <c r="H122" s="2">
         <v>2090</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" s="2">
+        <v>2090</v>
+      </c>
+      <c r="J122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="K122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="L122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="M122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="N122" s="2">
+        <v>2540</v>
+      </c>
+      <c r="O122" s="2">
+        <v>2090</v>
+      </c>
+      <c r="P122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="R122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="S122" s="2">
+        <v>4840</v>
+      </c>
+      <c r="T122" s="3">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3625,11 +8027,47 @@
       <c r="G123">
         <v>186</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H123" s="2">
+        <v>176</v>
+      </c>
+      <c r="I123" s="2">
+        <v>172</v>
+      </c>
+      <c r="J123" s="2">
+        <v>172</v>
+      </c>
+      <c r="K123" s="2">
+        <v>186</v>
+      </c>
+      <c r="L123" s="2">
+        <v>186</v>
+      </c>
+      <c r="M123" s="2">
+        <v>186</v>
+      </c>
+      <c r="N123" s="2">
+        <v>176</v>
+      </c>
+      <c r="O123" s="2">
+        <v>184</v>
+      </c>
+      <c r="P123" s="2">
+        <v>186</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>186</v>
+      </c>
+      <c r="R123" s="2">
+        <v>186</v>
+      </c>
+      <c r="S123" s="2">
+        <v>186</v>
+      </c>
+      <c r="T123" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3651,11 +8089,47 @@
       <c r="G124">
         <v>159</v>
       </c>
-      <c r="H124" s="8">
+      <c r="H124" s="2">
+        <v>162</v>
+      </c>
+      <c r="I124" s="2">
+        <v>162</v>
+      </c>
+      <c r="J124" s="2">
         <v>159</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K124" s="2">
+        <v>159</v>
+      </c>
+      <c r="L124" s="2">
+        <v>159</v>
+      </c>
+      <c r="M124" s="2">
+        <v>159</v>
+      </c>
+      <c r="N124" s="2">
+        <v>170</v>
+      </c>
+      <c r="O124" s="2">
+        <v>160</v>
+      </c>
+      <c r="P124" s="2">
+        <v>159</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>159</v>
+      </c>
+      <c r="R124" s="2">
+        <v>159</v>
+      </c>
+      <c r="S124" s="2">
+        <v>159</v>
+      </c>
+      <c r="T124" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3677,11 +8151,47 @@
       <c r="G125">
         <v>237900</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H125" s="2">
+        <v>238780</v>
+      </c>
+      <c r="I125" s="2">
+        <v>238780</v>
+      </c>
+      <c r="J125" s="2">
+        <v>247300</v>
+      </c>
+      <c r="K125" s="2">
+        <v>249535</v>
+      </c>
+      <c r="L125" s="2">
+        <v>250415</v>
+      </c>
+      <c r="M125" s="2">
+        <v>250415</v>
+      </c>
+      <c r="N125" s="2">
+        <v>244185</v>
+      </c>
+      <c r="O125" s="2">
+        <v>243900</v>
+      </c>
+      <c r="P125" s="2">
+        <v>247300</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>249535</v>
+      </c>
+      <c r="R125" s="2">
+        <v>249535</v>
+      </c>
+      <c r="S125" s="2">
+        <v>249535</v>
+      </c>
+      <c r="T125" s="3">
         <v>237900</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3703,11 +8213,47 @@
       <c r="G126">
         <v>350</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H126" s="2">
+        <v>360</v>
+      </c>
+      <c r="I126" s="2">
+        <v>360</v>
+      </c>
+      <c r="J126" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K126" s="2">
+        <v>350</v>
+      </c>
+      <c r="L126" s="2">
+        <v>350</v>
+      </c>
+      <c r="M126" s="2">
+        <v>350</v>
+      </c>
+      <c r="N126" s="2">
+        <v>395</v>
+      </c>
+      <c r="O126" s="2">
+        <v>360</v>
+      </c>
+      <c r="P126" s="2">
+        <v>350</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>350</v>
+      </c>
+      <c r="R126" s="2">
+        <v>350</v>
+      </c>
+      <c r="S126" s="2">
+        <v>350</v>
+      </c>
+      <c r="T126" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3729,11 +8275,47 @@
       <c r="G127">
         <v>1100</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H127" s="2">
+        <v>1110</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1110</v>
+      </c>
+      <c r="J127" s="2">
         <v>1100</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="L127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="N127" s="2">
+        <v>1110</v>
+      </c>
+      <c r="O127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="P127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="R127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="S127" s="2">
+        <v>1100</v>
+      </c>
+      <c r="T127" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3755,11 +8337,47 @@
       <c r="G128">
         <v>17010</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H128" s="2">
+        <v>17370</v>
+      </c>
+      <c r="I128" s="2">
+        <v>17370</v>
+      </c>
+      <c r="J128" s="2">
         <v>17010</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K128" s="2">
+        <v>17010</v>
+      </c>
+      <c r="L128" s="2">
+        <v>17010</v>
+      </c>
+      <c r="M128" s="2">
+        <v>17010</v>
+      </c>
+      <c r="N128" s="2">
+        <v>17160</v>
+      </c>
+      <c r="O128" s="2">
+        <v>17160</v>
+      </c>
+      <c r="P128" s="2">
+        <v>17010</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>17010</v>
+      </c>
+      <c r="R128" s="2">
+        <v>17010</v>
+      </c>
+      <c r="S128" s="2">
+        <v>17010</v>
+      </c>
+      <c r="T128" s="3">
+        <v>17010</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3781,11 +8399,47 @@
       <c r="G129">
         <v>5860</v>
       </c>
-      <c r="H129" s="8">
+      <c r="H129" s="2">
         <v>5860</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="J129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="K129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="L129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="M129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="N129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="O129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="P129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="R129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="S129" s="2">
+        <v>5860</v>
+      </c>
+      <c r="T129" s="3">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3807,11 +8461,47 @@
       <c r="G130">
         <v>13200</v>
       </c>
-      <c r="H130" s="8">
+      <c r="H130" s="2">
+        <v>15150</v>
+      </c>
+      <c r="I130" s="2">
+        <v>15150</v>
+      </c>
+      <c r="J130" s="2">
+        <v>18950</v>
+      </c>
+      <c r="K130" s="2">
+        <v>18950</v>
+      </c>
+      <c r="L130" s="2">
+        <v>21800</v>
+      </c>
+      <c r="M130" s="2">
+        <v>21800</v>
+      </c>
+      <c r="N130" s="2">
+        <v>17650</v>
+      </c>
+      <c r="O130" s="2">
+        <v>18100</v>
+      </c>
+      <c r="P130" s="2">
+        <v>20950</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>22450</v>
+      </c>
+      <c r="R130" s="2">
+        <v>23800</v>
+      </c>
+      <c r="S130" s="2">
+        <v>23800</v>
+      </c>
+      <c r="T130" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3833,11 +8523,47 @@
       <c r="G131">
         <v>230560</v>
       </c>
-      <c r="H131" s="8">
+      <c r="H131" s="2">
+        <v>236910</v>
+      </c>
+      <c r="I131" s="2">
+        <v>236110</v>
+      </c>
+      <c r="J131" s="2">
+        <v>230560</v>
+      </c>
+      <c r="K131" s="2">
+        <v>230560</v>
+      </c>
+      <c r="L131" s="2">
+        <v>230560</v>
+      </c>
+      <c r="M131" s="2">
+        <v>230560</v>
+      </c>
+      <c r="N131" s="2">
+        <v>250770</v>
+      </c>
+      <c r="O131" s="2">
+        <v>250770</v>
+      </c>
+      <c r="P131" s="2">
+        <v>231360</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>231360</v>
+      </c>
+      <c r="R131" s="2">
+        <v>230260</v>
+      </c>
+      <c r="S131" s="2">
+        <v>237360</v>
+      </c>
+      <c r="T131" s="3">
         <v>222110</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3859,11 +8585,47 @@
       <c r="G132">
         <v>1245</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H132" s="2">
+        <v>1275</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1275</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="N132" s="2">
+        <v>1275</v>
+      </c>
+      <c r="O132" s="2">
+        <v>1225</v>
+      </c>
+      <c r="P132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="R132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="S132" s="2">
+        <v>1200</v>
+      </c>
+      <c r="T132" s="3">
         <v>1160</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3885,11 +8647,47 @@
       <c r="G133">
         <v>9670</v>
       </c>
-      <c r="H133" s="8">
+      <c r="H133" s="2">
+        <v>8860</v>
+      </c>
+      <c r="I133" s="2">
+        <v>8860</v>
+      </c>
+      <c r="J133" s="2">
+        <v>9470</v>
+      </c>
+      <c r="K133" s="2">
+        <v>9470</v>
+      </c>
+      <c r="L133" s="2">
+        <v>11550</v>
+      </c>
+      <c r="M133" s="2">
+        <v>10420</v>
+      </c>
+      <c r="N133" s="2">
+        <v>9130</v>
+      </c>
+      <c r="O133" s="2">
+        <v>8880</v>
+      </c>
+      <c r="P133" s="2">
+        <v>10420</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>10420</v>
+      </c>
+      <c r="R133" s="2">
+        <v>11720</v>
+      </c>
+      <c r="S133" s="2">
+        <v>8880</v>
+      </c>
+      <c r="T133" s="3">
         <v>8710</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3911,11 +8709,47 @@
       <c r="G134">
         <v>85090</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H134" s="2">
+        <v>86040</v>
+      </c>
+      <c r="I134" s="2">
+        <v>86040</v>
+      </c>
+      <c r="J134" s="2">
+        <v>119780</v>
+      </c>
+      <c r="K134" s="2">
+        <v>119780</v>
+      </c>
+      <c r="L134" s="2">
+        <v>114120</v>
+      </c>
+      <c r="M134" s="2">
+        <v>111460</v>
+      </c>
+      <c r="N134" s="2">
+        <v>88110</v>
+      </c>
+      <c r="O134" s="2">
+        <v>98380</v>
+      </c>
+      <c r="P134" s="2">
+        <v>116740</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>113800</v>
+      </c>
+      <c r="R134" s="2">
+        <v>111800</v>
+      </c>
+      <c r="S134" s="2">
+        <v>111800</v>
+      </c>
+      <c r="T134" s="3">
         <v>79380</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3937,11 +8771,47 @@
       <c r="G135">
         <v>2825</v>
       </c>
-      <c r="H135" s="8">
+      <c r="H135" s="2">
+        <v>2775</v>
+      </c>
+      <c r="I135" s="2">
+        <v>2775</v>
+      </c>
+      <c r="J135" s="2">
+        <v>2810</v>
+      </c>
+      <c r="K135" s="2">
+        <v>2810</v>
+      </c>
+      <c r="L135" s="2">
+        <v>2810</v>
+      </c>
+      <c r="M135" s="2">
+        <v>2810</v>
+      </c>
+      <c r="N135" s="2">
+        <v>2875</v>
+      </c>
+      <c r="O135" s="2">
+        <v>2840</v>
+      </c>
+      <c r="P135" s="2">
+        <v>2765</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>2765</v>
+      </c>
+      <c r="R135" s="2">
+        <v>2765</v>
+      </c>
+      <c r="S135" s="2">
+        <v>2765</v>
+      </c>
+      <c r="T135" s="3">
         <v>2740</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3963,11 +8833,47 @@
       <c r="G136">
         <v>34650</v>
       </c>
-      <c r="H136" s="8">
+      <c r="H136" s="2">
+        <v>34450</v>
+      </c>
+      <c r="I136" s="2">
+        <v>34450</v>
+      </c>
+      <c r="J136" s="2">
+        <v>34650</v>
+      </c>
+      <c r="K136" s="2">
+        <v>34650</v>
+      </c>
+      <c r="L136" s="2">
+        <v>34650</v>
+      </c>
+      <c r="M136" s="2">
+        <v>34650</v>
+      </c>
+      <c r="N136" s="2">
         <v>34150</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O136" s="2">
+        <v>34150</v>
+      </c>
+      <c r="P136" s="2">
+        <v>34500</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>34500</v>
+      </c>
+      <c r="R136" s="2">
+        <v>34650</v>
+      </c>
+      <c r="S136" s="2">
+        <v>34650</v>
+      </c>
+      <c r="T136" s="3">
+        <v>34150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3989,11 +8895,47 @@
       <c r="G137">
         <v>151980</v>
       </c>
-      <c r="H137" s="8">
+      <c r="H137" s="2">
+        <v>147880</v>
+      </c>
+      <c r="I137" s="2">
+        <v>147880</v>
+      </c>
+      <c r="J137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="K137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="L137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="M137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="N137" s="2">
+        <v>149190</v>
+      </c>
+      <c r="O137" s="2">
+        <v>151530</v>
+      </c>
+      <c r="P137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="R137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="S137" s="2">
+        <v>158940</v>
+      </c>
+      <c r="T137" s="3">
         <v>145640</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4015,11 +8957,47 @@
       <c r="G138">
         <v>1045</v>
       </c>
-      <c r="H138" s="8">
+      <c r="H138" s="2">
+        <v>825</v>
+      </c>
+      <c r="I138" s="2">
+        <v>825</v>
+      </c>
+      <c r="J138" s="2">
+        <v>905</v>
+      </c>
+      <c r="K138" s="2">
+        <v>905</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1040</v>
+      </c>
+      <c r="M138" s="2">
+        <v>1040</v>
+      </c>
+      <c r="N138" s="2">
+        <v>855</v>
+      </c>
+      <c r="O138" s="2">
+        <v>855</v>
+      </c>
+      <c r="P138" s="2">
+        <v>915</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>915</v>
+      </c>
+      <c r="R138" s="2">
+        <v>915</v>
+      </c>
+      <c r="S138" s="2">
+        <v>915</v>
+      </c>
+      <c r="T138" s="3">
         <v>760</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4041,11 +9019,47 @@
       <c r="G139">
         <v>310</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" s="2">
+        <v>310</v>
+      </c>
+      <c r="J139" s="2">
+        <v>310</v>
+      </c>
+      <c r="K139" s="2">
+        <v>310</v>
+      </c>
+      <c r="L139" s="2">
+        <v>330</v>
+      </c>
+      <c r="M139" s="2">
+        <v>330</v>
+      </c>
+      <c r="N139" s="2">
+        <v>360</v>
+      </c>
+      <c r="O139" s="2">
+        <v>330</v>
+      </c>
+      <c r="P139" s="2">
+        <v>330</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>330</v>
+      </c>
+      <c r="R139" s="2">
+        <v>330</v>
+      </c>
+      <c r="S139" s="2">
+        <v>330</v>
+      </c>
+      <c r="T139" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4067,11 +9081,47 @@
       <c r="G140">
         <v>2470</v>
       </c>
-      <c r="H140" s="8">
+      <c r="H140" s="2">
+        <v>2725</v>
+      </c>
+      <c r="I140" s="2">
+        <v>2725</v>
+      </c>
+      <c r="J140" s="2">
         <v>2470</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K140" s="2">
+        <v>2470</v>
+      </c>
+      <c r="L140" s="2">
+        <v>2470</v>
+      </c>
+      <c r="M140" s="2">
+        <v>2470</v>
+      </c>
+      <c r="N140" s="2">
+        <v>2660</v>
+      </c>
+      <c r="O140" s="2">
+        <v>2675</v>
+      </c>
+      <c r="P140" s="2">
+        <v>2470</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>2470</v>
+      </c>
+      <c r="R140" s="2">
+        <v>2470</v>
+      </c>
+      <c r="S140" s="2">
+        <v>2470</v>
+      </c>
+      <c r="T140" s="3">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4093,11 +9143,47 @@
       <c r="G141">
         <v>2585</v>
       </c>
-      <c r="H141" s="8">
+      <c r="H141" s="2">
+        <v>4420</v>
+      </c>
+      <c r="I141" s="2">
+        <v>4420</v>
+      </c>
+      <c r="J141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="K141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="L141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="M141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="N141" s="2">
+        <v>8360</v>
+      </c>
+      <c r="O141" s="2">
+        <v>4470</v>
+      </c>
+      <c r="P141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="R141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="S141" s="2">
+        <v>2585</v>
+      </c>
+      <c r="T141" s="3">
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4119,11 +9205,47 @@
       <c r="G142">
         <v>6240</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="2">
         <v>5920</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" s="2">
+        <v>5920</v>
+      </c>
+      <c r="J142" s="2">
+        <v>5920</v>
+      </c>
+      <c r="K142" s="2">
+        <v>6240</v>
+      </c>
+      <c r="L142" s="2">
+        <v>7120</v>
+      </c>
+      <c r="M142" s="2">
+        <v>6240</v>
+      </c>
+      <c r="N142" s="2">
+        <v>5920</v>
+      </c>
+      <c r="O142" s="2">
+        <v>5920</v>
+      </c>
+      <c r="P142" s="2">
+        <v>5920</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>6240</v>
+      </c>
+      <c r="R142" s="2">
+        <v>7120</v>
+      </c>
+      <c r="S142" s="2">
+        <v>6240</v>
+      </c>
+      <c r="T142" s="3">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4145,11 +9267,47 @@
       <c r="G143">
         <v>1780</v>
       </c>
-      <c r="H143" s="8">
+      <c r="H143" s="2">
+        <v>1820</v>
+      </c>
+      <c r="I143" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J143" s="2">
+        <v>1940</v>
+      </c>
+      <c r="K143" s="2">
         <v>1780</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L143" s="2">
+        <v>1780</v>
+      </c>
+      <c r="M143" s="2">
+        <v>1780</v>
+      </c>
+      <c r="N143" s="2">
+        <v>1780</v>
+      </c>
+      <c r="O143" s="2">
+        <v>1780</v>
+      </c>
+      <c r="P143" s="2">
+        <v>1940</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>1780</v>
+      </c>
+      <c r="R143" s="2">
+        <v>1940</v>
+      </c>
+      <c r="S143" s="2">
+        <v>1780</v>
+      </c>
+      <c r="T143" s="3">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4171,11 +9329,47 @@
       <c r="G144">
         <v>384</v>
       </c>
-      <c r="H144" s="8">
+      <c r="H144" s="2">
         <v>378</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" s="2">
+        <v>378</v>
+      </c>
+      <c r="J144" s="2">
+        <v>396</v>
+      </c>
+      <c r="K144" s="2">
+        <v>384</v>
+      </c>
+      <c r="L144" s="2">
+        <v>384</v>
+      </c>
+      <c r="M144" s="2">
+        <v>384</v>
+      </c>
+      <c r="N144" s="2">
+        <v>380</v>
+      </c>
+      <c r="O144" s="2">
+        <v>378</v>
+      </c>
+      <c r="P144" s="2">
+        <v>396</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>384</v>
+      </c>
+      <c r="R144" s="2">
+        <v>396</v>
+      </c>
+      <c r="S144" s="2">
+        <v>384</v>
+      </c>
+      <c r="T144" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4197,11 +9391,47 @@
       <c r="G145">
         <v>765</v>
       </c>
-      <c r="H145" s="8">
+      <c r="H145" s="2">
         <v>645</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" s="2">
+        <v>645</v>
+      </c>
+      <c r="J145" s="2">
+        <v>665</v>
+      </c>
+      <c r="K145" s="2">
+        <v>645</v>
+      </c>
+      <c r="L145" s="2">
+        <v>785</v>
+      </c>
+      <c r="M145" s="2">
+        <v>645</v>
+      </c>
+      <c r="N145" s="2">
+        <v>685</v>
+      </c>
+      <c r="O145" s="2">
+        <v>685</v>
+      </c>
+      <c r="P145" s="2">
+        <v>785</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>665</v>
+      </c>
+      <c r="R145" s="2">
+        <v>785</v>
+      </c>
+      <c r="S145" s="2">
+        <v>665</v>
+      </c>
+      <c r="T145" s="3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4223,21 +9453,64 @@
       <c r="G146">
         <v>12175097</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="I146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="J146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="K146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="L146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="M146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="N146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="O146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="P146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="R146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="S146" s="2">
+        <v>12175097</v>
+      </c>
+      <c r="T146" s="5">
         <v>12175100</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H147" s="7"/>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T147" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>